--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
   <si>
     <t>Artist</t>
   </si>
@@ -36,16 +36,22 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Blasterjaxx, Dr Phunk</t>
+  </si>
+  <si>
     <t>Bad Computer</t>
   </si>
   <si>
+    <t>Koven</t>
+  </si>
+  <si>
+    <t>Ellis</t>
+  </si>
+  <si>
     <t>Centineo, Niles Mason</t>
   </si>
   <si>
-    <t>Koven</t>
-  </si>
-  <si>
-    <t>Ellis</t>
+    <t>Masayoshi Iimori</t>
   </si>
   <si>
     <t>SWACQ</t>
@@ -54,19 +60,28 @@
     <t>KAAZE</t>
   </si>
   <si>
+    <t>Trilane, Charlie Ray, Jordan Grace</t>
+  </si>
+  <si>
     <t>Nokturn</t>
   </si>
   <si>
+    <t>Here Without You</t>
+  </si>
+  <si>
     <t>Destroy Me</t>
   </si>
   <si>
+    <t>Light Up</t>
+  </si>
+  <si>
+    <t>Orbit</t>
+  </si>
+  <si>
     <t>Fearless</t>
   </si>
   <si>
-    <t>Light Up</t>
-  </si>
-  <si>
-    <t>Orbit</t>
+    <t>In My Soul</t>
   </si>
   <si>
     <t>Purification</t>
@@ -75,9 +90,15 @@
     <t>Midnight Runners</t>
   </si>
   <si>
+    <t>In Heaven</t>
+  </si>
+  <si>
     <t>Stargazing</t>
   </si>
   <si>
+    <t>Maxximize Records, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
@@ -90,6 +111,9 @@
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>Protocol Recordings</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -99,10 +123,31 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>Blasterjaxx</t>
+  </si>
+  <si>
+    <t>Dr Phunk</t>
+  </si>
+  <si>
     <t>Centineo</t>
   </si>
   <si>
     <t>Niles Mason</t>
+  </si>
+  <si>
+    <t>Charlie Ray</t>
+  </si>
+  <si>
+    <t>Jordan Grace</t>
+  </si>
+  <si>
+    <t>Trilane</t>
+  </si>
+  <si>
+    <t>Maxximize Records</t>
+  </si>
+  <si>
+    <t>Spinnin' Records</t>
   </si>
 </sst>
 </file>
@@ -460,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -485,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>101024</v>
+        <v>164407</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -499,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>62015</v>
+        <v>117028</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -513,13 +558,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>59792</v>
+        <v>87606</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -527,13 +572,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>59653</v>
+        <v>77004</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -541,13 +586,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>22053</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -555,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>13010</v>
+        <v>52535</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -569,13 +614,55 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>186</v>
+        <v>25247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>21714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -585,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -602,128 +689,179 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -734,7 +872,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,21 +889,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>33472</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -773,27 +911,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>15222</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>5765</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -801,55 +939,97 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>5658</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>2014</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>1910</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -875,26 +1055,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>101024</v>
+        <v>164407</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B3">
-        <v>62015</v>
+        <v>164407</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>62015</v>
+        <v>117028</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -902,7 +1082,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>59792</v>
+        <v>87606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -910,31 +1090,79 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>59653</v>
+        <v>77004</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>22053</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>13010</v>
+        <v>66444</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>52535</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>186</v>
+      <c r="B10">
+        <v>25247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>21714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>7277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -955,97 +1183,163 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -1056,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1067,15 +1361,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>33472</v>
+        <v>39642</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1083,15 +1377,15 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>15222</v>
+        <v>21256</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>5765</v>
+        <v>13813</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1099,39 +1393,87 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5658</v>
+        <v>13795</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B7">
-        <v>2014</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1910</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1157,26 +1499,50 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>220469</v>
+        <v>334173</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>22053</v>
+        <v>164407</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>13010</v>
+        <v>164407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>25247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>21714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>7277</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1552,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1197,43 +1563,76 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1254,31 +1653,55 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B2">
-        <v>54352</v>
+        <v>88506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>5765</v>
+        <v>11363</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>1910</v>
+        <v>11363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
   <si>
     <t>Artist</t>
   </si>
@@ -36,69 +36,48 @@
     <t>YouTube_Views</t>
   </si>
   <si>
-    <t>Blasterjaxx, Dr Phunk</t>
-  </si>
-  <si>
     <t>Bad Computer</t>
   </si>
   <si>
+    <t>Centineo, Niles Mason</t>
+  </si>
+  <si>
     <t>Koven</t>
   </si>
   <si>
     <t>Ellis</t>
   </si>
   <si>
-    <t>Centineo, Niles Mason</t>
-  </si>
-  <si>
-    <t>Masayoshi Iimori</t>
-  </si>
-  <si>
     <t>SWACQ</t>
   </si>
   <si>
     <t>KAAZE</t>
   </si>
   <si>
-    <t>Trilane, Charlie Ray, Jordan Grace</t>
-  </si>
-  <si>
     <t>Nokturn</t>
   </si>
   <si>
-    <t>Here Without You</t>
-  </si>
-  <si>
     <t>Destroy Me</t>
   </si>
   <si>
+    <t>Fearless</t>
+  </si>
+  <si>
     <t>Light Up</t>
   </si>
   <si>
     <t>Orbit</t>
   </si>
   <si>
-    <t>Fearless</t>
-  </si>
-  <si>
-    <t>In My Soul</t>
-  </si>
-  <si>
     <t>Purification</t>
   </si>
   <si>
     <t>Midnight Runners</t>
   </si>
   <si>
-    <t>In Heaven</t>
-  </si>
-  <si>
     <t>Stargazing</t>
   </si>
   <si>
-    <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
     <t>Monstercat</t>
   </si>
   <si>
@@ -111,9 +90,6 @@
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>Protocol Recordings</t>
-  </si>
-  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -123,31 +99,10 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
-    <t>Blasterjaxx</t>
-  </si>
-  <si>
-    <t>Dr Phunk</t>
-  </si>
-  <si>
     <t>Centineo</t>
   </si>
   <si>
     <t>Niles Mason</t>
-  </si>
-  <si>
-    <t>Charlie Ray</t>
-  </si>
-  <si>
-    <t>Jordan Grace</t>
-  </si>
-  <si>
-    <t>Trilane</t>
-  </si>
-  <si>
-    <t>Maxximize Records</t>
-  </si>
-  <si>
-    <t>Spinnin' Records</t>
   </si>
 </sst>
 </file>
@@ -505,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,13 +485,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>164407</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -544,13 +499,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>117028</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -558,13 +513,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>87606</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -572,13 +527,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>77004</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -586,13 +541,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>66444</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -600,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>52535</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -614,55 +569,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>25247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>21714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>311</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +585,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,179 +602,128 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
       <c r="D3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
         <v>0</v>
       </c>
     </row>
@@ -872,7 +734,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,21 +751,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>39642</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -911,27 +773,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>21256</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>13813</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -939,97 +801,55 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>13795</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>11363</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>7750</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +859,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1055,26 +875,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>164407</v>
+        <v>101024</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>164407</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>117028</v>
+        <v>62015</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1082,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>87606</v>
+        <v>59792</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1090,79 +910,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>77004</v>
+        <v>59653</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>66444</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>66444</v>
+        <v>13010</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>52535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>25247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>21714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>311</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +944,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1183,163 +955,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -1350,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1361,15 +1067,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>39642</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1377,15 +1083,15 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>21256</v>
+        <v>15222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>13813</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1393,87 +1099,39 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>13795</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>11363</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>11363</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>7750</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1141,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,50 +1157,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>334173</v>
+        <v>220469</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>164407</v>
+        <v>22053</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>164407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>25247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>21714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>7277</v>
+        <v>13010</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1186,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1563,76 +1197,43 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1243,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,55 +1254,31 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>88506</v>
+        <v>54352</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B3">
-        <v>11363</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>11363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7">
-        <v>1342</v>
+        <v>1910</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
   <si>
     <t>Artist</t>
   </si>
@@ -48,10 +48,19 @@
     <t>Ellis</t>
   </si>
   <si>
+    <t>Masayoshi Iimori</t>
+  </si>
+  <si>
     <t>Centineo, Niles Mason</t>
   </si>
   <si>
-    <t>Masayoshi Iimori</t>
+    <t>NEONI</t>
+  </si>
+  <si>
+    <t>Slippy, Fiora</t>
+  </si>
+  <si>
+    <t>insaneintherainmusic</t>
   </si>
   <si>
     <t>SWACQ</t>
@@ -60,6 +69,9 @@
     <t>KAAZE</t>
   </si>
   <si>
+    <t>Chime, Dr. Ozi, Trinergy</t>
+  </si>
+  <si>
     <t>Trilane, Charlie Ray, Jordan Grace</t>
   </si>
   <si>
@@ -78,10 +90,19 @@
     <t>Orbit</t>
   </si>
   <si>
+    <t>In My Soul</t>
+  </si>
+  <si>
     <t>Fearless</t>
   </si>
   <si>
-    <t>In My Soul</t>
+    <t>Where We Rise</t>
+  </si>
+  <si>
+    <t>Zenith</t>
+  </si>
+  <si>
+    <t>Feels Like Home</t>
   </si>
   <si>
     <t>Purification</t>
@@ -90,6 +111,9 @@
     <t>Midnight Runners</t>
   </si>
   <si>
+    <t>Motion</t>
+  </si>
+  <si>
     <t>In Heaven</t>
   </si>
   <si>
@@ -105,12 +129,18 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>Elev8Music</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>Never Say Die Records</t>
+  </si>
+  <si>
     <t>Protocol Recordings</t>
   </si>
   <si>
@@ -133,6 +163,21 @@
   </si>
   <si>
     <t>Niles Mason</t>
+  </si>
+  <si>
+    <t>Fiora</t>
+  </si>
+  <si>
+    <t>Slippy</t>
+  </si>
+  <si>
+    <t>Chime</t>
+  </si>
+  <si>
+    <t>Dr. Ozi</t>
+  </si>
+  <si>
+    <t>Trinergy</t>
   </si>
   <si>
     <t>Charlie Ray</t>
@@ -505,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,13 +575,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>164407</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -544,13 +589,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>117028</v>
+        <v>131219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -558,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>87606</v>
+        <v>108661</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -572,13 +617,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>77004</v>
+        <v>89058</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -586,13 +631,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>66444</v>
+        <v>75479</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -600,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>52535</v>
+        <v>71017</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -614,13 +659,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>25247</v>
+        <v>63534</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -628,13 +673,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>21714</v>
+        <v>47743</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -642,13 +687,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>7277</v>
+        <v>38944</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -656,13 +701,69 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>311</v>
+        <v>27082</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>26159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,61 +790,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -751,16 +852,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -768,10 +869,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -785,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -802,33 +903,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -836,32 +937,100 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
     </row>
@@ -872,7 +1041,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -897,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>39642</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -911,27 +1080,27 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>21256</v>
+        <v>25001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>13813</v>
+        <v>22818</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -939,41 +1108,41 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>13795</v>
+        <v>19210</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>11363</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>7750</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -981,55 +1150,111 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>4350</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>2993</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>1342</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="D11">
-        <v>35</v>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1055,18 +1280,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B2">
-        <v>164407</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>164407</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1074,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>117028</v>
+        <v>131219</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1082,7 +1307,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>87606</v>
+        <v>108661</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1090,31 +1315,31 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>77004</v>
+        <v>89058</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>66444</v>
+        <v>75479</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>66444</v>
+        <v>71017</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B9">
-        <v>52535</v>
+        <v>71017</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1122,47 +1347,103 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>25247</v>
+        <v>63534</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>21714</v>
+        <v>47743</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>7277</v>
+        <v>47743</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>7277</v>
+        <v>38944</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>7277</v>
+        <v>27082</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>311</v>
+        <v>26159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -1172,7 +1453,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1183,87 +1464,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1296,50 +1577,127 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -1350,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1361,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1369,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>39642</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1377,15 +1735,15 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>21256</v>
+        <v>25001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>13813</v>
+        <v>22818</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1393,87 +1751,143 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>13795</v>
+        <v>19210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>11363</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>11363</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>7750</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>4350</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>2993</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11">
-        <v>2993</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B12">
-        <v>1342</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>1342</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1342</v>
+        <v>8225</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1483,7 +1897,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1499,50 +1913,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>334173</v>
+        <v>452160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>164407</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>164407</v>
+        <v>206085</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>25247</v>
+        <v>63534</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>21714</v>
+        <v>27082</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>7277</v>
+        <v>26159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>14667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>8550</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1563,76 +1993,98 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,55 +2105,71 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2">
-        <v>88506</v>
+        <v>124301</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
-        <v>11363</v>
+        <v>17606</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B4">
-        <v>11363</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B5">
-        <v>7750</v>
+        <v>14436</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B6">
-        <v>4350</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B7">
-        <v>1342</v>
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>1752</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="105">
   <si>
     <t>Artist</t>
   </si>
@@ -36,67 +36,127 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Don Diablo, JLV, John K</t>
+  </si>
+  <si>
+    <t>Kaskade, Ella Vos</t>
+  </si>
+  <si>
     <t>Blasterjaxx, Dr Phunk</t>
   </si>
   <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
     <t>Bad Computer</t>
   </si>
   <si>
+    <t>Blackcode, Jess Sarubbi</t>
+  </si>
+  <si>
     <t>Koven</t>
   </si>
   <si>
     <t>Ellis</t>
   </si>
   <si>
+    <t>Julian Jordan, Guy Arthur</t>
+  </si>
+  <si>
+    <t>Danimal</t>
+  </si>
+  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
+    <t>NEONI</t>
+  </si>
+  <si>
+    <t>Pixel Terror, ESPER, Isaiah Brown</t>
+  </si>
+  <si>
     <t>Centineo, Niles Mason</t>
   </si>
   <si>
-    <t>NEONI</t>
+    <t>Dirty Palm, joegarratt</t>
   </si>
   <si>
     <t>Slippy, Fiora</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
+    <t>NUZB, Malarkey</t>
+  </si>
+  <si>
+    <t>KAAZE</t>
   </si>
   <si>
     <t>SWACQ</t>
   </si>
   <si>
-    <t>KAAZE</t>
+    <t>Mo Falk</t>
   </si>
   <si>
     <t>Chime, Dr. Ozi, Trinergy</t>
   </si>
   <si>
+    <t>Flay!</t>
+  </si>
+  <si>
     <t>Trilane, Charlie Ray, Jordan Grace</t>
   </si>
   <si>
     <t>Nokturn</t>
   </si>
   <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Miles To Go</t>
+  </si>
+  <si>
     <t>Here Without You</t>
   </si>
   <si>
+    <t>Get Dirty</t>
+  </si>
+  <si>
     <t>Destroy Me</t>
   </si>
   <si>
+    <t>Scars</t>
+  </si>
+  <si>
     <t>Light Up</t>
   </si>
   <si>
     <t>Orbit</t>
   </si>
   <si>
+    <t>Let Me Be The One</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
     <t>In My Soul</t>
   </si>
   <si>
+    <t>You Will Know Our Names</t>
+  </si>
+  <si>
+    <t>Where We Rise</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
     <t>Fearless</t>
   </si>
   <si>
-    <t>Where We Rise</t>
+    <t>My Eyes</t>
   </si>
   <si>
     <t>Zenith</t>
@@ -105,42 +165,66 @@
     <t>Feels Like Home</t>
   </si>
   <si>
+    <t>Miss Me</t>
+  </si>
+  <si>
+    <t>Midnight Runners</t>
+  </si>
+  <si>
     <t>Purification</t>
   </si>
   <si>
-    <t>Midnight Runners</t>
+    <t>Feel So Dug (VIP Mix)</t>
   </si>
   <si>
     <t>Motion</t>
   </si>
   <si>
+    <t>Eunoia</t>
+  </si>
+  <si>
     <t>In Heaven</t>
   </si>
   <si>
     <t>Stargazing</t>
   </si>
   <si>
+    <t>HEXAGON</t>
+  </si>
+  <si>
+    <t>Monstercat Silk, Monstercat</t>
+  </si>
+  <si>
     <t>Maxximize Records, Spinnin' Records</t>
   </si>
   <si>
+    <t>Musical Freedom, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Monstercat</t>
   </si>
   <si>
+    <t>STMPD RCRDS</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
     <t>Elev8Music</t>
   </si>
   <si>
-    <t>HEXAGON</t>
-  </si>
-  <si>
     <t>Revealed Music</t>
   </si>
   <si>
+    <t>Future House Music</t>
+  </si>
+  <si>
     <t>Never Say Die Records</t>
   </si>
   <si>
+    <t>Blossoms Asia, Diverge Music Group</t>
+  </si>
+  <si>
     <t>Protocol Recordings</t>
   </si>
   <si>
@@ -153,24 +237,72 @@
     <t>Soundcloud_Plays</t>
   </si>
   <si>
+    <t>Don Diablo</t>
+  </si>
+  <si>
+    <t>JLV</t>
+  </si>
+  <si>
+    <t>John K</t>
+  </si>
+  <si>
+    <t>Ella Vos</t>
+  </si>
+  <si>
+    <t>Kaskade</t>
+  </si>
+  <si>
     <t>Blasterjaxx</t>
   </si>
   <si>
     <t>Dr Phunk</t>
   </si>
   <si>
+    <t>Blackcode</t>
+  </si>
+  <si>
+    <t>Jess Sarubbi</t>
+  </si>
+  <si>
+    <t>Guy Arthur</t>
+  </si>
+  <si>
+    <t>Julian Jordan</t>
+  </si>
+  <si>
+    <t>ESPER</t>
+  </si>
+  <si>
+    <t>Isaiah Brown</t>
+  </si>
+  <si>
+    <t>Pixel Terror</t>
+  </si>
+  <si>
     <t>Centineo</t>
   </si>
   <si>
     <t>Niles Mason</t>
   </si>
   <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
+    <t>joegarratt</t>
+  </si>
+  <si>
     <t>Fiora</t>
   </si>
   <si>
     <t>Slippy</t>
   </si>
   <si>
+    <t>Malarkey</t>
+  </si>
+  <si>
+    <t>NUZB</t>
+  </si>
+  <si>
     <t>Chime</t>
   </si>
   <si>
@@ -189,10 +321,22 @@
     <t>Trilane</t>
   </si>
   <si>
+    <t>Spinnin' Records</t>
+  </si>
+  <si>
+    <t>Monstercat Silk</t>
+  </si>
+  <si>
     <t>Maxximize Records</t>
   </si>
   <si>
-    <t>Spinnin' Records</t>
+    <t>Musical Freedom</t>
+  </si>
+  <si>
+    <t>Blossoms Asia</t>
+  </si>
+  <si>
+    <t>Diverge Music Group</t>
   </si>
 </sst>
 </file>
@@ -550,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,13 +719,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>206085</v>
+        <v>1133713</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -589,13 +733,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>131219</v>
+        <v>631889</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -603,13 +747,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D4">
-        <v>108661</v>
+        <v>241893</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -617,13 +761,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D5">
-        <v>89058</v>
+        <v>190558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -631,13 +775,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>75479</v>
+        <v>150758</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -645,13 +789,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>71017</v>
+        <v>138390</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -659,13 +803,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>63534</v>
+        <v>132237</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -673,13 +817,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>47743</v>
+        <v>106373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -687,13 +831,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>38944</v>
+        <v>103717</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -701,13 +845,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>27082</v>
+        <v>100180</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -715,13 +859,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>26159</v>
+        <v>94699</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -729,13 +873,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>14667</v>
+        <v>93158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -743,13 +887,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>8550</v>
+        <v>91737</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -757,13 +901,181 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>399</v>
+        <v>86675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16">
+        <v>73273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17">
+        <v>71474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>66352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19">
+        <v>45543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21">
+        <v>30779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22">
+        <v>29840</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23">
+        <v>27190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -790,163 +1102,163 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E5">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -954,83 +1266,287 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
         <v>0</v>
       </c>
     </row>
@@ -1041,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1058,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1066,194 +1582,362 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>44822</v>
+        <v>58861</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>25001</v>
+        <v>51551</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>22818</v>
+        <v>32220</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>19210</v>
+        <v>30594</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>17606</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>14436</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>12450</v>
+        <v>25550</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>9492</v>
+        <v>18767</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>8225</v>
+        <v>17592</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D11">
-        <v>5783</v>
+        <v>17120</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>3731</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>1752</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>48</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>11423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1948,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1280,170 +1964,330 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="B2">
-        <v>206085</v>
+        <v>1133713</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>206085</v>
+        <v>1133713</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B4">
-        <v>131219</v>
+        <v>1133713</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>108661</v>
+        <v>631889</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B6">
-        <v>89058</v>
+        <v>631889</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>75479</v>
+        <v>241893</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>71017</v>
+        <v>241893</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>71017</v>
+        <v>190558</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>63534</v>
+        <v>150758</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>47743</v>
+        <v>138701</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="B12">
-        <v>47743</v>
+        <v>138390</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>38944</v>
+        <v>138390</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>27082</v>
+        <v>132237</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>26159</v>
+        <v>106373</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>14667</v>
+        <v>103717</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>14667</v>
+        <v>103717</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>14667</v>
+        <v>100180</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>8550</v>
+        <v>94699</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>8550</v>
+        <v>91737</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B21">
-        <v>8550</v>
+        <v>86675</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B22">
-        <v>399</v>
+        <v>86675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23">
+        <v>86675</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24">
+        <v>73273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25">
+        <v>73273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>71474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>71474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28">
+        <v>66352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29">
+        <v>66352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>39354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>30779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>29840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>27190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41">
+        <v>10021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +2297,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1464,240 +2308,460 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
         <v>17</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
         <v>12</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +2772,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1719,23 +2783,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>44822</v>
+        <v>58861</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>25001</v>
+        <v>58861</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1743,150 +2807,310 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>22818</v>
+        <v>51551</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>19210</v>
+        <v>32220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>17606</v>
+        <v>30594</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B7">
-        <v>17606</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>17606</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B9">
-        <v>14436</v>
+        <v>30343</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>14436</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>12450</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B12">
-        <v>12450</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>9492</v>
+        <v>25550</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B14">
-        <v>8225</v>
+        <v>18767</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B15">
-        <v>5783</v>
+        <v>18767</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>3731</v>
+        <v>17592</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>3731</v>
+        <v>17592</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <v>1752</v>
+        <v>17120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>1752</v>
+        <v>17120</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>1752</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B21">
-        <v>48</v>
+        <v>14861</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B22">
+        <v>14861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25">
+        <v>13486</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>11423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42">
         <v>0</v>
       </c>
     </row>
@@ -1897,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1913,10 +3137,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>452160</v>
+        <v>1268983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1924,55 +3148,103 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>206085</v>
+        <v>1163553</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>206085</v>
+        <v>671021</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>63534</v>
+        <v>631889</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>27082</v>
+        <v>480463</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B7">
-        <v>26159</v>
+        <v>190558</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B8">
-        <v>14667</v>
+        <v>143071</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>8550</v>
+        <v>91737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10">
+        <v>30779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>27190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>18963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>17334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>10021</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +3254,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,97 +3265,163 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B2">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B3">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +3432,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2105,71 +3443,119 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B2">
-        <v>124301</v>
+        <v>247886</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B3">
-        <v>17606</v>
+        <v>59208</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>14436</v>
+        <v>58861</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="B5">
-        <v>14436</v>
+        <v>42501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="B6">
-        <v>9492</v>
+        <v>31981</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B7">
-        <v>8225</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>5783</v>
+        <v>16707</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="B9">
-        <v>1752</v>
+        <v>13705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>11808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>4789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>2145</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="111">
   <si>
     <t>Artist</t>
   </si>
@@ -66,24 +66,24 @@
     <t>Danimal</t>
   </si>
   <si>
+    <t>NEONI</t>
+  </si>
+  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
-    <t>NEONI</t>
-  </si>
-  <si>
     <t>Pixel Terror, ESPER, Isaiah Brown</t>
   </si>
   <si>
+    <t>Dirty Palm, joegarratt</t>
+  </si>
+  <si>
     <t>Centineo, Niles Mason</t>
   </si>
   <si>
-    <t>Dirty Palm, joegarratt</t>
-  </si>
-  <si>
     <t>Slippy, Fiora</t>
   </si>
   <si>
@@ -108,6 +108,9 @@
     <t>Trilane, Charlie Ray, Jordan Grace</t>
   </si>
   <si>
+    <t>James Wellen, CHRSTN, Jonny Rose</t>
+  </si>
+  <si>
     <t>Nokturn</t>
   </si>
   <si>
@@ -141,24 +144,24 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>Where We Rise</t>
+  </si>
+  <si>
     <t>In My Soul</t>
   </si>
   <si>
     <t>You Will Know Our Names</t>
   </si>
   <si>
-    <t>Where We Rise</t>
-  </si>
-  <si>
     <t>Medusa</t>
   </si>
   <si>
+    <t>My Eyes</t>
+  </si>
+  <si>
     <t>Fearless</t>
   </si>
   <si>
-    <t>My Eyes</t>
-  </si>
-  <si>
     <t>Zenith</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>In Heaven</t>
   </si>
   <si>
+    <t>Into Your Arms</t>
+  </si>
+  <si>
     <t>Stargazing</t>
   </si>
   <si>
@@ -207,12 +213,12 @@
     <t>STMPD RCRDS</t>
   </si>
   <si>
+    <t>Elev8Music</t>
+  </si>
+  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Elev8Music</t>
-  </si>
-  <si>
     <t>Revealed Music</t>
   </si>
   <si>
@@ -228,6 +234,9 @@
     <t>Protocol Recordings</t>
   </si>
   <si>
+    <t>Eonity</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -279,18 +288,18 @@
     <t>Pixel Terror</t>
   </si>
   <si>
+    <t>Dirty Palm</t>
+  </si>
+  <si>
+    <t>joegarratt</t>
+  </si>
+  <si>
     <t>Centineo</t>
   </si>
   <si>
     <t>Niles Mason</t>
   </si>
   <si>
-    <t>Dirty Palm</t>
-  </si>
-  <si>
-    <t>joegarratt</t>
-  </si>
-  <si>
     <t>Fiora</t>
   </si>
   <si>
@@ -319,6 +328,15 @@
   </si>
   <si>
     <t>Trilane</t>
+  </si>
+  <si>
+    <t>CHRSTN</t>
+  </si>
+  <si>
+    <t>James Wellen</t>
+  </si>
+  <si>
+    <t>Jonny Rose</t>
   </si>
   <si>
     <t>Spinnin' Records</t>
@@ -694,7 +712,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,13 +737,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2">
-        <v>1133713</v>
+        <v>1199637</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -733,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3">
-        <v>631889</v>
+        <v>691756</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -747,13 +765,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>241893</v>
+        <v>255235</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -761,13 +779,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>190558</v>
+        <v>210570</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -775,13 +793,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>150758</v>
+        <v>161247</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -789,13 +807,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>138390</v>
+        <v>148266</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -803,13 +821,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>132237</v>
+        <v>141552</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -817,13 +835,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>106373</v>
+        <v>120468</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -831,13 +849,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>103717</v>
+        <v>110080</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -845,13 +863,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>100180</v>
+        <v>108398</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -859,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>94699</v>
+        <v>106020</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -873,13 +891,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
       </c>
       <c r="D13">
-        <v>93158</v>
+        <v>101475</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -887,13 +905,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D14">
-        <v>91737</v>
+        <v>99033</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -901,13 +919,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>86675</v>
+        <v>95100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -915,13 +933,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16">
-        <v>73273</v>
+        <v>74560</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -929,13 +947,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>71474</v>
+        <v>74133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -943,27 +961,27 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>66352</v>
+        <v>72514</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>45543</v>
+        <v>48105</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -971,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>39354</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -985,13 +1003,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>30779</v>
+        <v>32854</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -999,13 +1017,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>29840</v>
+        <v>31138</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1013,13 +1031,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23">
-        <v>27190</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1027,13 +1045,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>18963</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1041,13 +1059,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D25">
-        <v>17334</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1055,13 +1073,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D26">
-        <v>10021</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1069,13 +1087,27 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>475</v>
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -1085,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1113,16 +1145,16 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1130,16 +1162,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>58</v>
       </c>
       <c r="E3">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1147,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1164,16 +1196,16 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>52</v>
       </c>
       <c r="E5">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1181,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1198,50 +1230,50 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1249,16 +1281,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1266,10 +1298,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>15</v>
@@ -1283,16 +1315,16 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1300,10 +1332,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1317,10 +1349,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1334,10 +1366,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1351,10 +1383,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1368,10 +1400,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1382,13 +1414,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1402,10 +1434,10 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1416,13 +1448,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1436,10 +1468,10 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1450,13 +1482,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1467,13 +1499,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1487,10 +1519,10 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1501,13 +1533,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1518,13 +1550,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1535,18 +1567,35 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
         <v>0</v>
       </c>
     </row>
@@ -1557,7 +1606,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1574,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1582,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>58861</v>
+        <v>64892</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1596,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>51551</v>
+        <v>57952</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1610,41 +1659,41 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>32220</v>
+        <v>37935</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>30594</v>
+        <v>35697</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>30343</v>
+        <v>33107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1652,13 +1701,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>26850</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1666,13 +1715,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>25550</v>
+        <v>27801</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1680,55 +1729,55 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>18767</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>17592</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
       <c r="D11">
-        <v>17120</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>16707</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1736,27 +1785,27 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13">
-        <v>14861</v>
+        <v>18126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>13705</v>
+        <v>16237</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1764,83 +1813,83 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15">
-        <v>13486</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>11808</v>
+        <v>12842</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
         <v>57</v>
       </c>
       <c r="D17">
-        <v>11423</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>10700</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>7219</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>4895</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1848,80 +1897,80 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>4789</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22">
-        <v>3074</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23">
-        <v>2145</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1929,15 +1978,29 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>
@@ -1948,7 +2011,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1964,58 +2027,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>1133713</v>
+        <v>1199637</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>1133713</v>
+        <v>1199637</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>1133713</v>
+        <v>1199637</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5">
-        <v>631889</v>
+        <v>691756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>631889</v>
+        <v>691756</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>241893</v>
+        <v>255235</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>241893</v>
+        <v>255235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2023,7 +2086,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>190558</v>
+        <v>210570</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2031,31 +2094,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>150758</v>
+        <v>161247</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="B11">
-        <v>138701</v>
+        <v>148266</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B12">
-        <v>138390</v>
+        <v>148266</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>138390</v>
+        <v>147138</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2063,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>132237</v>
+        <v>141552</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2071,23 +2134,23 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>106373</v>
+        <v>120468</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>103717</v>
+        <v>110080</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>103717</v>
+        <v>110080</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2095,7 +2158,7 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>100180</v>
+        <v>108398</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2103,103 +2166,103 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>94699</v>
+        <v>106020</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>91737</v>
+        <v>101475</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>86675</v>
+        <v>95100</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>86675</v>
+        <v>95100</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>86675</v>
+        <v>95100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>73273</v>
+        <v>74560</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B25">
-        <v>73273</v>
+        <v>74560</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B26">
-        <v>71474</v>
+        <v>74133</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B27">
-        <v>71474</v>
+        <v>74133</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>66352</v>
+        <v>72514</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B29">
-        <v>66352</v>
+        <v>72514</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>39354</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B31">
-        <v>39354</v>
+        <v>43870</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2207,7 +2270,7 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>30779</v>
+        <v>32854</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2215,7 +2278,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>29840</v>
+        <v>31138</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2223,31 +2286,31 @@
         <v>24</v>
       </c>
       <c r="B34">
-        <v>27190</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>18963</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B36">
-        <v>18963</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B37">
-        <v>18963</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2255,39 +2318,63 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>17334</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B39">
-        <v>10021</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B40">
-        <v>10021</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B41">
-        <v>10021</v>
+        <v>10465</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B42">
-        <v>475</v>
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -2297,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,65 +2395,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>58</v>
       </c>
       <c r="C4">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>58</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>58</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2374,10 +2461,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2388,29 +2475,29 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2418,92 +2505,92 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>17</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>15</v>
@@ -2514,7 +2601,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>15</v>
@@ -2528,10 +2615,10 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2569,7 +2656,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -2580,7 +2667,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2591,7 +2678,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -2613,7 +2700,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -2624,7 +2711,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2635,7 +2722,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -2646,7 +2733,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -2657,7 +2744,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2668,7 +2755,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2679,7 +2766,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2690,7 +2777,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2701,7 +2788,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2712,7 +2799,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2723,7 +2810,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2734,7 +2821,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2745,7 +2832,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2756,12 +2843,45 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
         <v>0</v>
       </c>
     </row>
@@ -2772,7 +2892,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2783,23 +2903,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B2">
-        <v>58861</v>
+        <v>64892</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3">
-        <v>58861</v>
+        <v>64892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2807,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>51551</v>
+        <v>57952</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2815,63 +2935,63 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>32220</v>
+        <v>37935</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>30594</v>
+        <v>35697</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B7">
-        <v>30343</v>
+        <v>35697</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B8">
-        <v>30343</v>
+        <v>35697</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>30343</v>
+        <v>33107</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>26850</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11">
-        <v>26850</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12">
-        <v>26850</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2879,238 +2999,262 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>25550</v>
+        <v>27801</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B14">
-        <v>18767</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B15">
-        <v>18767</v>
+        <v>20620</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>17592</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B17">
-        <v>17592</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>17120</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19">
-        <v>17120</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="B20">
-        <v>16707</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B21">
-        <v>14861</v>
+        <v>18126</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B22">
-        <v>14861</v>
+        <v>18126</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>13705</v>
+        <v>16237</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B24">
-        <v>13486</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25">
-        <v>13486</v>
+        <v>14950</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>11808</v>
+        <v>12842</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>11423</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28">
-        <v>10700</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29">
-        <v>10700</v>
+        <v>11374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="B30">
-        <v>7219</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B31">
-        <v>4895</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B32">
-        <v>4895</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>4789</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>3074</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B35">
-        <v>2145</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B36">
-        <v>2145</v>
+        <v>5383</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>2145</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
         <v>0</v>
       </c>
     </row>
@@ -3121,7 +3265,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3137,114 +3281,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>1268983</v>
+        <v>1384112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3">
-        <v>1163553</v>
+        <v>1230775</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>671021</v>
+        <v>722469</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B5">
-        <v>631889</v>
+        <v>691756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>480463</v>
+        <v>511899</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B7">
-        <v>190558</v>
+        <v>210570</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8">
-        <v>143071</v>
+        <v>153950</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>91737</v>
+        <v>106020</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10">
-        <v>30779</v>
+        <v>32854</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>27190</v>
+        <v>29586</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>18963</v>
+        <v>20594</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B13">
-        <v>17334</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B14">
-        <v>17334</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B15">
-        <v>10021</v>
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>3512</v>
       </c>
     </row>
   </sheetData>
@@ -3254,7 +3406,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3265,70 +3417,70 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>110</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B5">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>32</v>
@@ -3339,51 +3491,51 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>17</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -3394,7 +3546,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3405,7 +3557,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3416,12 +3568,23 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0</v>
       </c>
     </row>
@@ -3432,7 +3595,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3443,119 +3606,127 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2">
-        <v>247886</v>
+        <v>278004</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>59208</v>
+        <v>65892</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B4">
-        <v>58861</v>
+        <v>64892</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5">
-        <v>42501</v>
+        <v>46767</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>31981</v>
+        <v>37577</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>26850</v>
+        <v>30225</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B8">
-        <v>16707</v>
+        <v>19125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9">
-        <v>13705</v>
+        <v>16237</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10">
-        <v>11808</v>
+        <v>12685</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>7219</v>
+        <v>9903</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>4789</v>
+        <v>7826</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>3074</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>3074</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B15">
-        <v>2145</v>
+        <v>3306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16">
+        <v>2300</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="121">
   <si>
     <t>Artist</t>
   </si>
@@ -60,15 +60,15 @@
     <t>Ellis</t>
   </si>
   <si>
+    <t>NEONI</t>
+  </si>
+  <si>
     <t>Julian Jordan, Guy Arthur</t>
   </si>
   <si>
     <t>Danimal</t>
   </si>
   <si>
-    <t>NEONI</t>
-  </si>
-  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
@@ -78,39 +78,45 @@
     <t>Pixel Terror, ESPER, Isaiah Brown</t>
   </si>
   <si>
+    <t>Slippy, Fiora</t>
+  </si>
+  <si>
     <t>Dirty Palm, joegarratt</t>
   </si>
   <si>
     <t>Centineo, Niles Mason</t>
   </si>
   <si>
-    <t>Slippy, Fiora</t>
-  </si>
-  <si>
     <t>NUZB, Malarkey</t>
   </si>
   <si>
     <t>KAAZE</t>
   </si>
   <si>
+    <t>Ryos, HAVOQ, Nino Lucarelli</t>
+  </si>
+  <si>
     <t>SWACQ</t>
   </si>
   <si>
     <t>Mo Falk</t>
   </si>
   <si>
+    <t>Flay!</t>
+  </si>
+  <si>
     <t>Chime, Dr. Ozi, Trinergy</t>
   </si>
   <si>
-    <t>Flay!</t>
-  </si>
-  <si>
     <t>Trilane, Charlie Ray, Jordan Grace</t>
   </si>
   <si>
     <t>James Wellen, CHRSTN, Jonny Rose</t>
   </si>
   <si>
+    <t>NeoMood, SouMix</t>
+  </si>
+  <si>
     <t>Nokturn</t>
   </si>
   <si>
@@ -138,15 +144,15 @@
     <t>Orbit</t>
   </si>
   <si>
+    <t>Where We Rise</t>
+  </si>
+  <si>
     <t>Let Me Be The One</t>
   </si>
   <si>
     <t>Wolves</t>
   </si>
   <si>
-    <t>Where We Rise</t>
-  </si>
-  <si>
     <t>In My Soul</t>
   </si>
   <si>
@@ -156,15 +162,15 @@
     <t>Medusa</t>
   </si>
   <si>
+    <t>Zenith</t>
+  </si>
+  <si>
     <t>My Eyes</t>
   </si>
   <si>
     <t>Fearless</t>
   </si>
   <si>
-    <t>Zenith</t>
-  </si>
-  <si>
     <t>Feels Like Home</t>
   </si>
   <si>
@@ -174,24 +180,30 @@
     <t>Midnight Runners</t>
   </si>
   <si>
+    <t>Fool's Gold</t>
+  </si>
+  <si>
     <t>Purification</t>
   </si>
   <si>
     <t>Feel So Dug (VIP Mix)</t>
   </si>
   <si>
+    <t>Eunoia</t>
+  </si>
+  <si>
     <t>Motion</t>
   </si>
   <si>
-    <t>Eunoia</t>
-  </si>
-  <si>
     <t>In Heaven</t>
   </si>
   <si>
     <t>Into Your Arms</t>
   </si>
   <si>
+    <t>Heartbeat</t>
+  </si>
+  <si>
     <t>Stargazing</t>
   </si>
   <si>
@@ -210,12 +222,12 @@
     <t>Monstercat</t>
   </si>
   <si>
+    <t>Elev8Music</t>
+  </si>
+  <si>
     <t>STMPD RCRDS</t>
   </si>
   <si>
-    <t>Elev8Music</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
@@ -225,18 +237,21 @@
     <t>Future House Music</t>
   </si>
   <si>
+    <t>Blossoms Asia, Diverge Music Group</t>
+  </si>
+  <si>
     <t>Never Say Die Records</t>
   </si>
   <si>
-    <t>Blossoms Asia, Diverge Music Group</t>
-  </si>
-  <si>
     <t>Protocol Recordings</t>
   </si>
   <si>
     <t>Eonity</t>
   </si>
   <si>
+    <t>Future House Cloud</t>
+  </si>
+  <si>
     <t>1001T_Supports</t>
   </si>
   <si>
@@ -288,6 +303,12 @@
     <t>Pixel Terror</t>
   </si>
   <si>
+    <t>Fiora</t>
+  </si>
+  <si>
+    <t>Slippy</t>
+  </si>
+  <si>
     <t>Dirty Palm</t>
   </si>
   <si>
@@ -300,18 +321,21 @@
     <t>Niles Mason</t>
   </si>
   <si>
-    <t>Fiora</t>
-  </si>
-  <si>
-    <t>Slippy</t>
-  </si>
-  <si>
     <t>Malarkey</t>
   </si>
   <si>
     <t>NUZB</t>
   </si>
   <si>
+    <t>HAVOQ</t>
+  </si>
+  <si>
+    <t>Nino Lucarelli</t>
+  </si>
+  <si>
+    <t>Ryos</t>
+  </si>
+  <si>
     <t>Chime</t>
   </si>
   <si>
@@ -337,6 +361,12 @@
   </si>
   <si>
     <t>Jonny Rose</t>
+  </si>
+  <si>
+    <t>NeoMood</t>
+  </si>
+  <si>
+    <t>SouMix</t>
   </si>
   <si>
     <t>Spinnin' Records</t>
@@ -712,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>1199637</v>
+        <v>1275394</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -751,13 +781,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>691756</v>
+        <v>763561</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -765,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>255235</v>
+        <v>268867</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -779,13 +809,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>210570</v>
+        <v>235716</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -793,13 +823,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>161247</v>
+        <v>174977</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -807,13 +837,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>148266</v>
+        <v>158585</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -821,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>141552</v>
+        <v>152822</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -835,13 +865,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>120468</v>
+        <v>137546</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -849,13 +879,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>110080</v>
+        <v>123709</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -863,13 +893,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>108398</v>
+        <v>118232</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -877,13 +907,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>63</v>
       </c>
       <c r="D12">
-        <v>106020</v>
+        <v>118146</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -891,13 +921,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>101475</v>
+        <v>108312</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -905,13 +935,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>99033</v>
+        <v>106748</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -919,13 +949,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>95100</v>
+        <v>104195</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -933,13 +963,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>74560</v>
+        <v>78779</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -947,13 +977,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>74133</v>
+        <v>77474</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -961,13 +991,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>72514</v>
+        <v>75126</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -975,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>48105</v>
+        <v>51231</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -989,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>43870</v>
+        <v>48806</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1003,13 +1033,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>32854</v>
+        <v>35336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1017,13 +1047,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>31138</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1031,13 +1061,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>29586</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1045,13 +1075,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>20594</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1059,13 +1089,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>20440</v>
+        <v>23111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1073,13 +1103,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>10465</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1087,13 +1117,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>3512</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1101,13 +1131,41 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>495</v>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1134,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1145,16 +1203,16 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1162,16 +1220,16 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1179,50 +1237,50 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1230,33 +1288,33 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1264,81 +1322,81 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>16</v>
@@ -1346,70 +1404,70 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1417,67 +1475,67 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1485,27 +1543,27 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1516,13 +1574,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1533,13 +1591,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1550,13 +1608,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1567,13 +1625,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1584,18 +1642,52 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
         <v>0</v>
       </c>
     </row>
@@ -1606,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1623,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1631,13 +1723,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>64892</v>
+        <v>71688</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1645,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>57952</v>
+        <v>64942</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1659,13 +1751,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>37935</v>
+        <v>43219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1673,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5">
-        <v>35697</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1687,27 +1779,27 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>33107</v>
+        <v>35561</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>30225</v>
+        <v>33968</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1715,97 +1807,97 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>27801</v>
+        <v>30346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>20620</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>19451</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>19125</v>
+        <v>21542</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>18975</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>18126</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>16237</v>
+        <v>19361</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1813,181 +1905,181 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D15">
-        <v>14950</v>
+        <v>16469</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>12842</v>
+        <v>15517</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>12685</v>
+        <v>14091</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>11374</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>9903</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>7826</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21">
-        <v>5933</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>5383</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
       <c r="D23">
-        <v>3306</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <v>2300</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1995,12 +2087,40 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
         <v>0</v>
       </c>
     </row>
@@ -2011,7 +2131,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2027,58 +2147,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B2">
-        <v>1199637</v>
+        <v>1275394</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B3">
-        <v>1199637</v>
+        <v>1275394</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B4">
-        <v>1199637</v>
+        <v>1275394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5">
-        <v>691756</v>
+        <v>763561</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B6">
-        <v>691756</v>
+        <v>763561</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B7">
-        <v>255235</v>
+        <v>268867</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B8">
-        <v>255235</v>
+        <v>268867</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2086,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>210570</v>
+        <v>235716</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2094,23 +2214,23 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>161247</v>
+        <v>174977</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B11">
-        <v>148266</v>
+        <v>158585</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B12">
-        <v>148266</v>
+        <v>158585</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2118,7 +2238,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>147138</v>
+        <v>157979</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2126,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>141552</v>
+        <v>152822</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2134,31 +2254,31 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>120468</v>
+        <v>137546</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>110080</v>
+        <v>123709</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>110080</v>
+        <v>118232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B18">
-        <v>108398</v>
+        <v>118232</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2166,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>106020</v>
+        <v>118146</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2174,95 +2294,95 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>101475</v>
+        <v>108312</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B21">
-        <v>95100</v>
+        <v>104195</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B22">
-        <v>95100</v>
+        <v>104195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B23">
-        <v>95100</v>
+        <v>104195</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B24">
-        <v>74560</v>
+        <v>78779</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B25">
-        <v>74560</v>
+        <v>78779</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B26">
-        <v>74133</v>
+        <v>77474</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B27">
-        <v>74133</v>
+        <v>77474</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>72514</v>
+        <v>75126</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B29">
-        <v>72514</v>
+        <v>75126</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B30">
-        <v>43870</v>
+        <v>48806</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B31">
-        <v>43870</v>
+        <v>48806</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2270,47 +2390,47 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>32854</v>
+        <v>35336</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>31138</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B34">
-        <v>29586</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B35">
-        <v>20594</v>
+        <v>34254</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>20594</v>
+        <v>33457</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>20594</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2318,63 +2438,103 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>20440</v>
+        <v>23111</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B39">
-        <v>10465</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>10465</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B41">
-        <v>10465</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B42">
-        <v>3512</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B43">
-        <v>3512</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B44">
-        <v>3512</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B45">
-        <v>495</v>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2544,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2395,65 +2555,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2">
         <v>94</v>
       </c>
-      <c r="B2">
-        <v>93</v>
-      </c>
       <c r="C2">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2461,43 +2621,43 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2505,205 +2665,205 @@
         <v>22</v>
       </c>
       <c r="B11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C18">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -2711,117 +2871,117 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2832,7 +2992,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2843,7 +3003,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2854,7 +3014,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2865,7 +3025,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2876,12 +3036,67 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
         <v>0</v>
       </c>
     </row>
@@ -2892,7 +3107,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2903,23 +3118,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B2">
-        <v>64892</v>
+        <v>71688</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B3">
-        <v>64892</v>
+        <v>71688</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2927,7 +3142,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>57952</v>
+        <v>64942</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2935,31 +3150,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>37935</v>
+        <v>43219</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>35697</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>35697</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B8">
-        <v>35697</v>
+        <v>42051</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2967,31 +3182,31 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>33107</v>
+        <v>35561</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B10">
-        <v>30225</v>
+        <v>33968</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B11">
-        <v>30225</v>
+        <v>33968</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B12">
-        <v>30225</v>
+        <v>33968</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2999,262 +3214,302 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>27801</v>
+        <v>30346</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14">
-        <v>20620</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>20620</v>
+        <v>23203</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>19451</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B17">
-        <v>19451</v>
+        <v>21542</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B18">
-        <v>19125</v>
+        <v>21542</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B19">
-        <v>18975</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B20">
-        <v>18975</v>
+        <v>21522</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B21">
-        <v>18126</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B22">
-        <v>18126</v>
+        <v>20398</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>16237</v>
+        <v>19361</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B24">
-        <v>14950</v>
+        <v>16469</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B25">
-        <v>14950</v>
+        <v>16469</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="B26">
-        <v>12842</v>
+        <v>15517</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B27">
-        <v>12685</v>
+        <v>15517</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>11374</v>
+        <v>15517</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>11374</v>
+        <v>14091</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>9903</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B31">
-        <v>9903</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B32">
-        <v>9903</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="B33">
-        <v>7826</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>5933</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B35">
-        <v>5383</v>
+        <v>12186</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>5383</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>3306</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38">
-        <v>2300</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39">
-        <v>2300</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>2300</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B41">
-        <v>50</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B45">
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
@@ -3265,7 +3520,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3281,122 +3536,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>1384112</v>
+        <v>1520192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>1230775</v>
+        <v>1308851</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>722469</v>
+        <v>781314</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B5">
-        <v>691756</v>
+        <v>763561</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B6">
-        <v>511899</v>
+        <v>545598</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B7">
-        <v>210570</v>
+        <v>235716</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B8">
-        <v>153950</v>
+        <v>167038</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>106020</v>
+        <v>123709</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>32854</v>
+        <v>69590</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>29586</v>
+        <v>32019</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B12">
-        <v>20594</v>
+        <v>23111</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B13">
-        <v>20440</v>
+        <v>23111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B14">
-        <v>20440</v>
+        <v>22560</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B15">
-        <v>10465</v>
+        <v>10911</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B16">
-        <v>3512</v>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>4397</v>
       </c>
     </row>
   </sheetData>
@@ -3406,7 +3669,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3417,76 +3680,76 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3494,70 +3757,70 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3568,7 +3831,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3579,12 +3842,23 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
@@ -3595,7 +3869,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3606,127 +3880,135 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>278004</v>
+        <v>311010</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3">
-        <v>65892</v>
+        <v>72934</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B4">
-        <v>64892</v>
+        <v>71688</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B5">
-        <v>46767</v>
+        <v>50958</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>37577</v>
+        <v>43064</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>30225</v>
+        <v>33968</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>19125</v>
+        <v>24094</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <v>16237</v>
+        <v>21976</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>12685</v>
+        <v>19361</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B11">
-        <v>9903</v>
+        <v>13908</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>7826</v>
+        <v>12221</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>5933</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B14">
-        <v>3306</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B15">
-        <v>3306</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B16">
-        <v>2300</v>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17">
+        <v>1065</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="123">
   <si>
     <t>Artist</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Bad Computer</t>
   </si>
   <si>
-    <t>Blackcode, Jess Sarubbi</t>
+    <t>BlackCode, Jess Sarubbi</t>
   </si>
   <si>
     <t>Koven</t>
@@ -93,6 +93,9 @@
     <t>KAAZE</t>
   </si>
   <si>
+    <t>NØ SIGNE</t>
+  </si>
+  <si>
     <t>Ryos, HAVOQ, Nino Lucarelli</t>
   </si>
   <si>
@@ -180,13 +183,16 @@
     <t>Midnight Runners</t>
   </si>
   <si>
+    <t>Closer</t>
+  </si>
+  <si>
     <t>Fool's Gold</t>
   </si>
   <si>
     <t>Purification</t>
   </si>
   <si>
-    <t>Feel So Dug (VIP Mix)</t>
+    <t>Feel So Gud (VIP Mix)</t>
   </si>
   <si>
     <t>Eunoia</t>
@@ -282,7 +288,7 @@
     <t>Dr Phunk</t>
   </si>
   <si>
-    <t>Blackcode</t>
+    <t>BlackCode</t>
   </si>
   <si>
     <t>Jess Sarubbi</t>
@@ -742,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -767,13 +773,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>1275394</v>
+        <v>1311900</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -781,13 +787,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>763561</v>
+        <v>803488</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -795,13 +801,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>268867</v>
+        <v>275781</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -809,13 +815,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>235716</v>
+        <v>249504</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -823,13 +829,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>174977</v>
+        <v>181488</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -837,13 +843,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>158585</v>
+        <v>163586</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -851,13 +857,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>152822</v>
+        <v>158259</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -865,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>137546</v>
+        <v>146219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -879,13 +885,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>123709</v>
+        <v>132134</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -893,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>118232</v>
+        <v>122687</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -907,13 +913,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12">
-        <v>118146</v>
+        <v>122403</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -921,13 +927,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>108312</v>
+        <v>111416</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -935,13 +941,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>106748</v>
+        <v>111009</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -949,13 +955,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>104195</v>
+        <v>108845</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -963,13 +969,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>78779</v>
+        <v>82035</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -977,13 +983,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>77474</v>
+        <v>78945</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -991,13 +997,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18">
-        <v>75126</v>
+        <v>75530</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1005,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>51231</v>
+        <v>52956</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1019,13 +1025,13 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>48806</v>
+        <v>51591</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1033,13 +1039,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>35336</v>
+        <v>36444</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1047,13 +1053,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22">
-        <v>34254</v>
+        <v>36283</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1061,13 +1067,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D23">
-        <v>33457</v>
+        <v>35727</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1075,13 +1081,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>32019</v>
+        <v>34314</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1089,13 +1095,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>23111</v>
+        <v>32981</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1103,13 +1109,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26">
-        <v>22560</v>
+        <v>24215</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1117,13 +1123,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27">
-        <v>10911</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1131,13 +1137,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28">
-        <v>4800</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1145,13 +1151,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>4397</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1159,13 +1165,27 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>517</v>
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -1175,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1192,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1203,251 +1223,251 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
         <v>61</v>
       </c>
-      <c r="D3">
-        <v>59</v>
-      </c>
       <c r="E3">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>16</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E14">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1455,149 +1475,149 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1608,13 +1628,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1625,13 +1645,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1642,13 +1662,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1659,13 +1679,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1676,18 +1696,35 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1715,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1723,13 +1760,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2">
-        <v>71688</v>
+        <v>75057</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1737,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>64942</v>
+        <v>67594</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1751,13 +1788,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>43219</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1765,13 +1802,13 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>42051</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1779,27 +1816,27 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>35561</v>
+        <v>36767</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>33968</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1807,13 +1844,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>30346</v>
+        <v>31583</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1821,13 +1858,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>23203</v>
+        <v>25104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1835,13 +1872,13 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>21976</v>
+        <v>23561</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1849,13 +1886,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>21542</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1863,41 +1900,41 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>21522</v>
+        <v>22544</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>20398</v>
+        <v>21487</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>19361</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1905,27 +1942,27 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15">
-        <v>16469</v>
+        <v>17333</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>15517</v>
+        <v>16323</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1933,116 +1970,116 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D17">
-        <v>14091</v>
+        <v>14686</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18">
-        <v>13908</v>
+        <v>14508</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19">
-        <v>12221</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D20">
-        <v>12186</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>8577</v>
+        <v>12587</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
-        <v>7300</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>5978</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>3604</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
@@ -2051,12 +2088,12 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>2512</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -2065,7 +2102,7 @@
         <v>75</v>
       </c>
       <c r="D26">
-        <v>1065</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2073,38 +2110,38 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2112,15 +2149,29 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30">
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
         <v>0</v>
       </c>
     </row>
@@ -2131,7 +2182,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2147,58 +2198,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2">
-        <v>1275394</v>
+        <v>1311900</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B3">
-        <v>1275394</v>
+        <v>1311900</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4">
-        <v>1275394</v>
+        <v>1311900</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5">
-        <v>763561</v>
+        <v>803488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>763561</v>
+        <v>803488</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7">
-        <v>268867</v>
+        <v>275781</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8">
-        <v>268867</v>
+        <v>275781</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2206,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>235716</v>
+        <v>249504</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2214,31 +2265,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>174977</v>
+        <v>181488</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>158585</v>
+        <v>163965</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>158585</v>
+        <v>163586</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B13">
-        <v>157979</v>
+        <v>163586</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2246,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>152822</v>
+        <v>158259</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2254,7 +2305,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>137546</v>
+        <v>146219</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2262,23 +2313,23 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>123709</v>
+        <v>132134</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17">
-        <v>118232</v>
+        <v>122687</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18">
-        <v>118232</v>
+        <v>122687</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2286,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>118146</v>
+        <v>122403</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2294,95 +2345,95 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>108312</v>
+        <v>111416</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21">
-        <v>104195</v>
+        <v>108845</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B22">
-        <v>104195</v>
+        <v>108845</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23">
-        <v>104195</v>
+        <v>108845</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>78779</v>
+        <v>82035</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B25">
-        <v>78779</v>
+        <v>82035</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B26">
-        <v>77474</v>
+        <v>78945</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27">
-        <v>77474</v>
+        <v>78945</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28">
-        <v>75126</v>
+        <v>75530</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29">
-        <v>75126</v>
+        <v>75530</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30">
-        <v>48806</v>
+        <v>51591</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B31">
-        <v>48806</v>
+        <v>51591</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2390,39 +2441,39 @@
         <v>22</v>
       </c>
       <c r="B32">
-        <v>35336</v>
+        <v>36444</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>34254</v>
+        <v>36283</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B34">
-        <v>34254</v>
+        <v>35727</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B35">
-        <v>34254</v>
+        <v>35727</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="B36">
-        <v>33457</v>
+        <v>35727</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2430,7 +2481,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>32019</v>
+        <v>34314</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2438,103 +2489,111 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>23111</v>
+        <v>32981</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>22560</v>
+        <v>24215</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40">
-        <v>22560</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41">
-        <v>22560</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B42">
-        <v>10911</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43">
-        <v>10911</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B44">
-        <v>10911</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B45">
-        <v>4800</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B46">
-        <v>4800</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47">
-        <v>4800</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48">
-        <v>4397</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B49">
-        <v>4397</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B50">
-        <v>517</v>
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -2544,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2555,191 +2614,191 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>41</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>32</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16">
         <v>19</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B17">
         <v>19</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -2750,7 +2809,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -2761,18 +2820,18 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21">
         <v>16</v>
@@ -2783,18 +2842,18 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>16</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2805,43 +2864,43 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2849,18 +2908,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>4</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -2871,62 +2930,62 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2937,7 +2996,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2948,46 +3007,46 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2995,26 +3054,26 @@
         <v>97</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -3025,7 +3084,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3036,7 +3095,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3047,7 +3106,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3058,7 +3117,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3069,7 +3128,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3080,7 +3139,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3091,12 +3150,23 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
         <v>0</v>
       </c>
     </row>
@@ -3107,7 +3177,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3118,23 +3188,23 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2">
-        <v>71688</v>
+        <v>75057</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3">
-        <v>71688</v>
+        <v>75057</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3142,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>64942</v>
+        <v>67594</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3150,31 +3220,31 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>43219</v>
+        <v>45893</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>42051</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7">
-        <v>42051</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8">
-        <v>42051</v>
+        <v>44204</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3182,31 +3252,31 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>35561</v>
+        <v>36767</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10">
-        <v>33968</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11">
-        <v>33968</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12">
-        <v>33968</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3214,23 +3284,23 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>30346</v>
+        <v>31583</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>23203</v>
+        <v>25104</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>23203</v>
+        <v>25104</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3238,103 +3308,103 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>21976</v>
+        <v>23561</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B17">
-        <v>21542</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B18">
-        <v>21542</v>
+        <v>23245</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19">
-        <v>21522</v>
+        <v>22544</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <v>21522</v>
+        <v>22544</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>20398</v>
+        <v>21487</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>20398</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="B23">
-        <v>19361</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>16469</v>
+        <v>17333</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25">
-        <v>16469</v>
+        <v>17333</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>15517</v>
+        <v>16323</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27">
-        <v>15517</v>
+        <v>16323</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28">
-        <v>15517</v>
+        <v>16323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3342,156 +3412,156 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>14091</v>
+        <v>14686</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>13908</v>
+        <v>14508</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>12221</v>
+        <v>13630</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32">
-        <v>12221</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B33">
-        <v>12221</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B34">
-        <v>12186</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B35">
-        <v>12186</v>
+        <v>12587</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B36">
-        <v>8577</v>
+        <v>12587</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>7300</v>
+        <v>8974</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>5978</v>
+        <v>7870</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39">
-        <v>5978</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B40">
-        <v>3604</v>
+        <v>6338</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>2512</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42">
-        <v>2512</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B43">
-        <v>2512</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44">
-        <v>1065</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45">
-        <v>1065</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B46">
-        <v>50</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3499,7 +3569,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3507,9 +3577,17 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>
@@ -3536,130 +3614,130 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>1520192</v>
+        <v>1591750</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>1308851</v>
+        <v>1346214</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>781314</v>
+        <v>811274</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B5">
-        <v>763561</v>
+        <v>803488</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6">
-        <v>545598</v>
+        <v>561770</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>235716</v>
+        <v>249504</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>167038</v>
+        <v>174278</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B9">
-        <v>123709</v>
+        <v>132134</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>69590</v>
+        <v>72171</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11">
-        <v>32019</v>
+        <v>69264</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>23111</v>
+        <v>24215</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <v>23111</v>
+        <v>24215</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14">
-        <v>22560</v>
+        <v>23717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15">
-        <v>10911</v>
+        <v>11119</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>4800</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>4397</v>
+        <v>4483</v>
       </c>
     </row>
   </sheetData>
@@ -3680,125 +3758,125 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="B8">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <v>19</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -3809,7 +3887,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3820,7 +3898,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3831,7 +3909,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3842,7 +3920,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3853,7 +3931,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3880,135 +3958,135 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>311010</v>
+        <v>326202</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B3">
-        <v>72934</v>
+        <v>76653</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4">
-        <v>71688</v>
+        <v>75057</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5">
-        <v>50958</v>
+        <v>53092</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>43064</v>
+        <v>45789</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>33968</v>
+        <v>35805</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>24094</v>
+        <v>25297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B9">
-        <v>21976</v>
+        <v>23561</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10">
-        <v>19361</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B11">
-        <v>13908</v>
+        <v>21487</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B12">
-        <v>12221</v>
+        <v>14508</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B13">
-        <v>7300</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B14">
-        <v>3604</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B15">
-        <v>3604</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16">
-        <v>2512</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B17">
-        <v>1065</v>
+        <v>1120</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="126">
   <si>
     <t>Artist</t>
   </si>
@@ -36,6 +36,9 @@
     <t>YouTube_Views</t>
   </si>
   <si>
+    <t>Porter Robinson</t>
+  </si>
+  <si>
     <t>Don Diablo, JLV, John K</t>
   </si>
   <si>
@@ -69,12 +72,12 @@
     <t>Danimal</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>Pixel Terror, ESPER, Isaiah Brown</t>
   </si>
   <si>
@@ -90,12 +93,12 @@
     <t>NUZB, Malarkey</t>
   </si>
   <si>
+    <t>NØ SIGNE</t>
+  </si>
+  <si>
     <t>KAAZE</t>
   </si>
   <si>
-    <t>NØ SIGNE</t>
-  </si>
-  <si>
     <t>Ryos, HAVOQ, Nino Lucarelli</t>
   </si>
   <si>
@@ -123,6 +126,9 @@
     <t>Nokturn</t>
   </si>
   <si>
+    <t>Musician</t>
+  </si>
+  <si>
     <t>Problems</t>
   </si>
   <si>
@@ -156,12 +162,12 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>You Will Know Our Names</t>
+  </si>
+  <si>
     <t>In My Soul</t>
   </si>
   <si>
-    <t>You Will Know Our Names</t>
-  </si>
-  <si>
     <t>Medusa</t>
   </si>
   <si>
@@ -174,18 +180,18 @@
     <t>Fearless</t>
   </si>
   <si>
+    <t>Miss Me</t>
+  </si>
+  <si>
     <t>Feels Like Home</t>
   </si>
   <si>
-    <t>Miss Me</t>
+    <t>Closer</t>
   </si>
   <si>
     <t>Midnight Runners</t>
   </si>
   <si>
-    <t>Closer</t>
-  </si>
-  <si>
     <t>Fool's Gold</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Stargazing</t>
   </si>
   <si>
+    <t>MOM+POP</t>
+  </si>
+  <si>
     <t>HEXAGON</t>
   </si>
   <si>
@@ -237,12 +246,12 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>Future House Music</t>
+  </si>
+  <si>
     <t>Revealed Music</t>
   </si>
   <si>
-    <t>Future House Music</t>
-  </si>
-  <si>
     <t>Blossoms Asia, Diverge Music Group</t>
   </si>
   <si>
@@ -375,10 +384,10 @@
     <t>SouMix</t>
   </si>
   <si>
+    <t>Monstercat Silk</t>
+  </si>
+  <si>
     <t>Spinnin' Records</t>
-  </si>
-  <si>
-    <t>Monstercat Silk</t>
   </si>
   <si>
     <t>Maxximize Records</t>
@@ -748,7 +757,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -773,13 +782,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>1311900</v>
+        <v>1916556</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -787,13 +796,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>803488</v>
+        <v>1356013</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -801,13 +810,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>275781</v>
+        <v>853837</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -815,13 +824,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>249504</v>
+        <v>284940</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -829,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6">
-        <v>181488</v>
+        <v>270691</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -843,13 +852,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>163586</v>
+        <v>189814</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -857,13 +866,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>158259</v>
+        <v>169454</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -871,13 +880,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>146219</v>
+        <v>165581</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -885,13 +894,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>132134</v>
+        <v>162005</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -899,13 +908,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>122687</v>
+        <v>142556</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -913,13 +922,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>122403</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -927,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>111416</v>
+        <v>127007</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -941,13 +950,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>111009</v>
+        <v>115861</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -955,13 +964,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>108845</v>
+        <v>115407</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -969,13 +978,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>82035</v>
+        <v>114622</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -983,13 +992,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="D17">
-        <v>78945</v>
+        <v>85713</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -997,55 +1006,55 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D18">
-        <v>75530</v>
+        <v>80759</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>52956</v>
+        <v>76002</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D20">
-        <v>51591</v>
+        <v>55155</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>36444</v>
+        <v>55125</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1053,13 +1062,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22">
-        <v>36283</v>
+        <v>38764</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1067,13 +1076,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>35727</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1081,13 +1090,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>34314</v>
+        <v>37421</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1095,13 +1104,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>32981</v>
+        <v>35351</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1109,13 +1118,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26">
-        <v>24215</v>
+        <v>34279</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1123,13 +1132,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D27">
-        <v>23717</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1137,13 +1146,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28">
-        <v>11119</v>
+        <v>25232</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1151,13 +1160,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>5311</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1165,13 +1174,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>4483</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1179,13 +1188,27 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>524</v>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1212,78 +1235,78 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>54</v>
-      </c>
       <c r="E5">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1291,50 +1314,50 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6">
         <v>53</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6">
-        <v>51</v>
-      </c>
       <c r="E6">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1342,95 +1365,95 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>15</v>
@@ -1441,50 +1464,50 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
       <c r="E15">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>6</v>
@@ -1492,33 +1515,33 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>6</v>
@@ -1526,50 +1549,50 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1577,19 +1600,19 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1597,44 +1620,44 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1645,13 +1668,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1662,13 +1685,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1679,13 +1702,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1696,13 +1719,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1713,18 +1736,35 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1752,245 +1792,245 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>75057</v>
+        <v>169862</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
         <v>67</v>
       </c>
       <c r="D3">
-        <v>67594</v>
+        <v>79633</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>45893</v>
+        <v>70671</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>44204</v>
+        <v>49486</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>36767</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D7">
-        <v>35805</v>
+        <v>38147</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>31583</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>25104</v>
+        <v>33189</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>23561</v>
+        <v>26478</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>69</v>
       </c>
       <c r="D11">
-        <v>23245</v>
+        <v>25720</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>22544</v>
+        <v>25332</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>21487</v>
+        <v>24053</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>21073</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>17333</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16">
-        <v>16323</v>
+        <v>18326</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>14686</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D18">
-        <v>14508</v>
+        <v>15460</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1998,125 +2038,125 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>13630</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>13544</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D21">
-        <v>12587</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>8974</v>
+        <v>13097</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>7870</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D24">
-        <v>6338</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
         <v>73</v>
       </c>
       <c r="D25">
-        <v>3769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26">
-        <v>2596</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>1120</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2124,38 +2164,38 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>52</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2163,15 +2203,29 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31">
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
         <v>0</v>
       </c>
     </row>
@@ -2182,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2198,66 +2252,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1311900</v>
+        <v>1916556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3">
-        <v>1311900</v>
+        <v>1356013</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4">
-        <v>1311900</v>
+        <v>1356013</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5">
-        <v>803488</v>
+        <v>1356013</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6">
-        <v>803488</v>
+        <v>853837</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B7">
-        <v>275781</v>
+        <v>853837</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>275781</v>
+        <v>284940</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="B9">
-        <v>249504</v>
+        <v>284940</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2265,39 +2319,39 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>181488</v>
+        <v>270691</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>163965</v>
+        <v>189814</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>163586</v>
+        <v>170986</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13">
-        <v>163586</v>
+        <v>169454</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B14">
-        <v>158259</v>
+        <v>169454</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2305,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>146219</v>
+        <v>165581</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2313,31 +2367,31 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>132134</v>
+        <v>162005</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>122687</v>
+        <v>142556</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18">
-        <v>122687</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B19">
-        <v>122403</v>
+        <v>127400</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2345,103 +2399,103 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>111416</v>
+        <v>127007</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>108845</v>
+        <v>115407</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B22">
-        <v>108845</v>
+        <v>114622</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B23">
-        <v>108845</v>
+        <v>114622</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B24">
-        <v>82035</v>
+        <v>114622</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25">
-        <v>82035</v>
+        <v>85713</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26">
-        <v>78945</v>
+        <v>85713</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B27">
-        <v>78945</v>
+        <v>80759</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B28">
-        <v>75530</v>
+        <v>80759</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B29">
-        <v>75530</v>
+        <v>76002</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30">
-        <v>51591</v>
+        <v>76002</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31">
-        <v>51591</v>
+        <v>55155</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B32">
-        <v>36444</v>
+        <v>55155</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2449,39 +2503,39 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>36283</v>
+        <v>38764</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>35727</v>
+        <v>37635</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35">
-        <v>35727</v>
+        <v>37421</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36">
-        <v>35727</v>
+        <v>37421</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B37">
-        <v>34314</v>
+        <v>37421</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2489,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>32981</v>
+        <v>35351</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2497,103 +2551,111 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>24215</v>
+        <v>34279</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>23717</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B41">
-        <v>23717</v>
+        <v>25232</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42">
-        <v>23717</v>
+        <v>25232</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43">
-        <v>11119</v>
+        <v>25232</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B44">
-        <v>11119</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45">
-        <v>11119</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B46">
-        <v>5311</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B47">
-        <v>5311</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B48">
-        <v>5311</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B49">
-        <v>4483</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B50">
-        <v>4483</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B51">
-        <v>524</v>
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2665,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2614,87 +2676,87 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2702,125 +2764,125 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>19</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2831,51 +2893,51 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>15</v>
@@ -2886,32 +2948,32 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
         <v>14</v>
       </c>
-      <c r="B26">
-        <v>13</v>
-      </c>
       <c r="C26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2919,32 +2981,32 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2952,76 +3014,76 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -3029,18 +3091,18 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3051,18 +3113,18 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3073,18 +3135,18 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3095,7 +3157,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3106,7 +3168,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3117,7 +3179,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3128,7 +3190,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3139,7 +3201,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3150,7 +3212,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3161,12 +3223,23 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3250,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3188,239 +3261,239 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>75057</v>
+        <v>169862</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>75057</v>
+        <v>79633</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B4">
-        <v>67594</v>
+        <v>79633</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>45893</v>
+        <v>70671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>44204</v>
+        <v>49486</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7">
-        <v>44204</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B8">
-        <v>44204</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="B9">
-        <v>36767</v>
+        <v>46872</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>35805</v>
+        <v>38147</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11">
-        <v>35805</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B12">
-        <v>35805</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B13">
-        <v>31583</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>25104</v>
+        <v>33189</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15">
-        <v>25104</v>
+        <v>26478</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B16">
-        <v>23561</v>
+        <v>26478</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>23245</v>
+        <v>25720</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B18">
-        <v>23245</v>
+        <v>25332</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>22544</v>
+        <v>25332</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>22544</v>
+        <v>24053</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B21">
-        <v>21487</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B22">
-        <v>21073</v>
+        <v>23634</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B23">
-        <v>21073</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24">
-        <v>17333</v>
+        <v>21950</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25">
-        <v>17333</v>
+        <v>18326</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B26">
-        <v>16323</v>
+        <v>18326</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>16323</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>16323</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B29">
-        <v>14686</v>
+        <v>17374</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>14508</v>
+        <v>15460</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3428,148 +3501,148 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>13630</v>
+        <v>15349</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>13544</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33">
-        <v>13544</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B34">
-        <v>13544</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B35">
-        <v>12587</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36">
-        <v>12587</v>
+        <v>13097</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B37">
-        <v>8974</v>
+        <v>13097</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>7870</v>
+        <v>9404</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>6338</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B40">
-        <v>6338</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B41">
-        <v>3769</v>
+        <v>6768</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>2596</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43">
-        <v>2596</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44">
-        <v>2596</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45">
-        <v>1120</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B46">
-        <v>1120</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B47">
-        <v>52</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3577,7 +3650,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3585,9 +3658,17 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>0</v>
       </c>
     </row>
@@ -3598,7 +3679,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,66 +3695,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>1591750</v>
+        <v>1916556</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>1346214</v>
+        <v>1686979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>811274</v>
+        <v>1391364</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>803488</v>
+        <v>853837</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6">
-        <v>561770</v>
+        <v>852092</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B7">
-        <v>249504</v>
+        <v>581401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="B8">
-        <v>174278</v>
+        <v>270691</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>132134</v>
+        <v>182555</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3681,63 +3762,71 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>72171</v>
+        <v>142556</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>69264</v>
+        <v>75056</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>24215</v>
+        <v>73043</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13">
-        <v>24215</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="B14">
-        <v>23717</v>
+        <v>25630</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B15">
-        <v>11119</v>
+        <v>25232</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16">
-        <v>5311</v>
+        <v>11332</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>4483</v>
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>4590</v>
       </c>
     </row>
   </sheetData>
@@ -3747,7 +3836,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3758,114 +3847,114 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C2">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C4">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -3876,40 +3965,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3920,7 +4009,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3931,12 +4020,23 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
@@ -3947,7 +4047,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3958,135 +4058,143 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B2">
-        <v>326202</v>
+        <v>344476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B3">
-        <v>76653</v>
+        <v>169862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4">
-        <v>75057</v>
+        <v>81456</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5">
-        <v>53092</v>
+        <v>79633</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B6">
-        <v>45789</v>
+        <v>55736</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7">
-        <v>35805</v>
+        <v>48966</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B8">
-        <v>25297</v>
+        <v>37973</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>23561</v>
+        <v>26778</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="B10">
-        <v>21500</v>
+        <v>25720</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B11">
-        <v>21487</v>
+        <v>24053</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B12">
-        <v>14508</v>
+        <v>24014</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B13">
-        <v>13544</v>
+        <v>15201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="B14">
-        <v>3769</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B15">
-        <v>3769</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="B16">
-        <v>2596</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17">
-        <v>1120</v>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -54,15 +54,15 @@
     <t>Bad Computer</t>
   </si>
   <si>
+    <t>Ellis</t>
+  </si>
+  <si>
     <t>BlackCode, Jess Sarubbi</t>
   </si>
   <si>
     <t>Koven</t>
   </si>
   <si>
-    <t>Ellis</t>
-  </si>
-  <si>
     <t>NEONI</t>
   </si>
   <si>
@@ -75,12 +75,12 @@
     <t>insaneintherainmusic</t>
   </si>
   <si>
+    <t>Pixel Terror, ESPER, Isaiah Brown</t>
+  </si>
+  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
-    <t>Pixel Terror, ESPER, Isaiah Brown</t>
-  </si>
-  <si>
     <t>Slippy, Fiora</t>
   </si>
   <si>
@@ -144,15 +144,15 @@
     <t>Destroy Me</t>
   </si>
   <si>
+    <t>Orbit</t>
+  </si>
+  <si>
     <t>Scars</t>
   </si>
   <si>
     <t>Light Up</t>
   </si>
   <si>
-    <t>Orbit</t>
-  </si>
-  <si>
     <t>Where We Rise</t>
   </si>
   <si>
@@ -165,10 +165,10 @@
     <t>You Will Know Our Names</t>
   </si>
   <si>
+    <t>Medusa</t>
+  </si>
+  <si>
     <t>In My Soul</t>
-  </si>
-  <si>
-    <t>Medusa</t>
   </si>
   <si>
     <t>Zenith</t>
@@ -788,7 +788,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>1916556</v>
+        <v>1995212</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -802,7 +802,7 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>1356013</v>
+        <v>1394271</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -816,7 +816,7 @@
         <v>67</v>
       </c>
       <c r="D4">
-        <v>853837</v>
+        <v>900052</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -830,7 +830,7 @@
         <v>68</v>
       </c>
       <c r="D5">
-        <v>284940</v>
+        <v>292228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -844,7 +844,7 @@
         <v>69</v>
       </c>
       <c r="D6">
-        <v>270691</v>
+        <v>286590</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -858,7 +858,7 @@
         <v>70</v>
       </c>
       <c r="D7">
-        <v>189814</v>
+        <v>197687</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -869,10 +869,10 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>169454</v>
+        <v>180945</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -883,10 +883,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>165581</v>
+        <v>174275</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -900,7 +900,7 @@
         <v>70</v>
       </c>
       <c r="D10">
-        <v>162005</v>
+        <v>171986</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -914,7 +914,7 @@
         <v>71</v>
       </c>
       <c r="D11">
-        <v>142556</v>
+        <v>151050</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -928,7 +928,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>127400</v>
+        <v>131464</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -942,7 +942,7 @@
         <v>68</v>
       </c>
       <c r="D13">
-        <v>127007</v>
+        <v>130410</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>115861</v>
+        <v>119663</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -970,7 +970,7 @@
         <v>70</v>
       </c>
       <c r="D15">
-        <v>115407</v>
+        <v>119379</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -984,7 +984,7 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <v>114622</v>
+        <v>118895</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -998,7 +998,7 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>85713</v>
+        <v>88760</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>73</v>
       </c>
       <c r="D18">
-        <v>80759</v>
+        <v>82466</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="D19">
-        <v>76002</v>
+        <v>76435</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>72</v>
       </c>
       <c r="D20">
-        <v>55155</v>
+        <v>58009</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <v>55125</v>
+        <v>57172</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>74</v>
       </c>
       <c r="D22">
-        <v>38764</v>
+        <v>40650</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>75</v>
       </c>
       <c r="D23">
-        <v>37635</v>
+        <v>38802</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <v>37421</v>
+        <v>38749</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>35351</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>74</v>
       </c>
       <c r="D26">
-        <v>34279</v>
+        <v>35255</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>76</v>
       </c>
       <c r="D27">
-        <v>25630</v>
+        <v>26717</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>77</v>
       </c>
       <c r="D28">
-        <v>25232</v>
+        <v>26606</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>11332</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>79</v>
       </c>
       <c r="D30">
-        <v>5941</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>80</v>
       </c>
       <c r="D31">
-        <v>4590</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1252,10 @@
         <v>72</v>
       </c>
       <c r="D2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1269,10 +1269,10 @@
         <v>69</v>
       </c>
       <c r="D3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E3">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1286,10 +1286,10 @@
         <v>66</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1303,10 +1303,10 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1320,10 +1320,10 @@
         <v>74</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1337,10 +1337,10 @@
         <v>72</v>
       </c>
       <c r="D7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1379,36 +1379,36 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1430,10 +1430,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -1456,10 +1456,10 @@
         <v>74</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1498,10 +1498,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1532,44 +1532,44 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
@@ -1583,10 +1583,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -1612,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1806,7 +1806,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>169862</v>
+        <v>178507</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="D3">
-        <v>79633</v>
+        <v>83399</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1834,105 +1834,105 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>70671</v>
+        <v>73269</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
       </c>
       <c r="D5">
-        <v>49486</v>
+        <v>52829</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
       <c r="D6">
-        <v>46872</v>
+        <v>49216</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>38147</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>37973</v>
+        <v>39290</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="D9">
-        <v>33189</v>
+        <v>34252</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>26478</v>
+        <v>27684</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>25720</v>
+        <v>27558</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>25332</v>
+        <v>27434</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>71</v>
       </c>
       <c r="D13">
-        <v>24053</v>
+        <v>26430</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="D14">
-        <v>23634</v>
+        <v>24673</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1988,21 +1988,21 @@
         <v>68</v>
       </c>
       <c r="D15">
-        <v>21950</v>
+        <v>22628</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
       <c r="D16">
-        <v>18326</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2016,63 +2016,63 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>17374</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>15460</v>
+        <v>16774</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>15349</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>15201</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>14853</v>
+        <v>15822</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>13097</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>75</v>
       </c>
       <c r="D23">
-        <v>9404</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="D24">
-        <v>8665</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>6768</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>76</v>
       </c>
       <c r="D26">
-        <v>3951</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>78</v>
       </c>
       <c r="D27">
-        <v>2710</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1916556</v>
+        <v>1995212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>1356013</v>
+        <v>1394271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>85</v>
       </c>
       <c r="B4">
-        <v>1356013</v>
+        <v>1394271</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="B5">
-        <v>1356013</v>
+        <v>1394271</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>87</v>
       </c>
       <c r="B6">
-        <v>853837</v>
+        <v>900052</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>853837</v>
+        <v>900052</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>89</v>
       </c>
       <c r="B8">
-        <v>284940</v>
+        <v>292228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>90</v>
       </c>
       <c r="B9">
-        <v>284940</v>
+        <v>292228</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>270691</v>
+        <v>286590</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2327,39 +2327,39 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>189814</v>
+        <v>197687</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>170986</v>
+        <v>180945</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>169454</v>
+        <v>176835</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14">
-        <v>169454</v>
+        <v>174275</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B15">
-        <v>165581</v>
+        <v>174275</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="B16">
-        <v>162005</v>
+        <v>171986</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>142556</v>
+        <v>151050</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>127400</v>
+        <v>131464</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>127400</v>
+        <v>131464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2399,39 +2399,39 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>127007</v>
+        <v>130410</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="B21">
-        <v>115407</v>
+        <v>119379</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22">
-        <v>114622</v>
+        <v>119379</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B23">
-        <v>114622</v>
+        <v>119379</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>114622</v>
+        <v>118895</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>85713</v>
+        <v>88760</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>85713</v>
+        <v>88760</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>80759</v>
+        <v>82466</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>101</v>
       </c>
       <c r="B28">
-        <v>80759</v>
+        <v>82466</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>102</v>
       </c>
       <c r="B29">
-        <v>76002</v>
+        <v>76435</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="B30">
-        <v>76002</v>
+        <v>76435</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>104</v>
       </c>
       <c r="B31">
-        <v>55155</v>
+        <v>58009</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>105</v>
       </c>
       <c r="B32">
-        <v>55155</v>
+        <v>58009</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>38764</v>
+        <v>40650</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>24</v>
       </c>
       <c r="B34">
-        <v>37635</v>
+        <v>38802</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>106</v>
       </c>
       <c r="B35">
-        <v>37421</v>
+        <v>38749</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>107</v>
       </c>
       <c r="B36">
-        <v>37421</v>
+        <v>38749</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>108</v>
       </c>
       <c r="B37">
-        <v>37421</v>
+        <v>38749</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>35351</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>34279</v>
+        <v>35255</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>28</v>
       </c>
       <c r="B40">
-        <v>25630</v>
+        <v>26717</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="B41">
-        <v>25232</v>
+        <v>26606</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>25232</v>
+        <v>26606</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>25232</v>
+        <v>26606</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <v>11332</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>113</v>
       </c>
       <c r="B45">
-        <v>11332</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>114</v>
       </c>
       <c r="B46">
-        <v>11332</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>115</v>
       </c>
       <c r="B47">
-        <v>5941</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>116</v>
       </c>
       <c r="B48">
-        <v>5941</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B49">
-        <v>5941</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>118</v>
       </c>
       <c r="B50">
-        <v>4590</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>119</v>
       </c>
       <c r="B51">
-        <v>4590</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="B52">
-        <v>551</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         <v>104</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2698,10 +2698,10 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2709,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2720,10 +2720,10 @@
         <v>84</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2731,10 +2731,10 @@
         <v>85</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2742,10 +2742,10 @@
         <v>86</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2753,10 +2753,10 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2764,10 +2764,10 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2775,10 +2775,10 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2786,10 +2786,10 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2838,46 +2838,46 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>20</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>20</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2940,10 +2940,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2970,7 +2970,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3003,51 +3003,51 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>169862</v>
+        <v>178507</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>79633</v>
+        <v>83399</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>79633</v>
+        <v>83399</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3293,15 +3293,15 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>70671</v>
+        <v>73269</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>49486</v>
+        <v>52829</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>46872</v>
+        <v>49216</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>46872</v>
+        <v>49216</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3325,71 +3325,71 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>46872</v>
+        <v>49216</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="B10">
-        <v>38147</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11">
-        <v>37973</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B12">
-        <v>37973</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>37973</v>
+        <v>39290</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>33189</v>
+        <v>34252</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>26478</v>
+        <v>27684</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16">
-        <v>26478</v>
+        <v>27558</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="B17">
-        <v>25720</v>
+        <v>27558</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3397,7 +3397,7 @@
         <v>104</v>
       </c>
       <c r="B18">
-        <v>25332</v>
+        <v>27434</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>105</v>
       </c>
       <c r="B19">
-        <v>25332</v>
+        <v>27434</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>13</v>
       </c>
       <c r="B20">
-        <v>24053</v>
+        <v>26430</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B21">
-        <v>23634</v>
+        <v>24673</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="B22">
-        <v>23634</v>
+        <v>24673</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="B23">
-        <v>21950</v>
+        <v>22628</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="B24">
-        <v>21950</v>
+        <v>22628</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>91</v>
       </c>
       <c r="B25">
-        <v>18326</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>92</v>
       </c>
       <c r="B26">
-        <v>18326</v>
+        <v>19288</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>17374</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>17374</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3485,55 +3485,55 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>17374</v>
+        <v>18185</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>15460</v>
+        <v>16774</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B31">
-        <v>15349</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="B32">
-        <v>15201</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B33">
-        <v>14853</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>14853</v>
+        <v>16100</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>14853</v>
+        <v>15822</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>100</v>
       </c>
       <c r="B36">
-        <v>13097</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3549,7 +3549,7 @@
         <v>101</v>
       </c>
       <c r="B37">
-        <v>13097</v>
+        <v>13513</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3557,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="B38">
-        <v>9404</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>8665</v>
+        <v>9311</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>102</v>
       </c>
       <c r="B40">
-        <v>6768</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>103</v>
       </c>
       <c r="B41">
-        <v>6768</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>3951</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>112</v>
       </c>
       <c r="B43">
-        <v>2710</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>113</v>
       </c>
       <c r="B44">
-        <v>2710</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>114</v>
       </c>
       <c r="B45">
-        <v>2710</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>118</v>
       </c>
       <c r="B46">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="B47">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>1916556</v>
+        <v>1995212</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>1686979</v>
+        <v>1777704</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>1391364</v>
+        <v>1430466</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>853837</v>
+        <v>900052</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>852092</v>
+        <v>883503</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>122</v>
       </c>
       <c r="B7">
-        <v>581401</v>
+        <v>596913</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>123</v>
       </c>
       <c r="B8">
-        <v>270691</v>
+        <v>286590</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>72</v>
       </c>
       <c r="B9">
-        <v>182555</v>
+        <v>189473</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>142556</v>
+        <v>151050</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>75</v>
       </c>
       <c r="B11">
-        <v>75056</v>
+        <v>77551</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>73043</v>
+        <v>75905</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>124</v>
       </c>
       <c r="B13">
-        <v>25630</v>
+        <v>26717</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>125</v>
       </c>
       <c r="B14">
-        <v>25630</v>
+        <v>26717</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>77</v>
       </c>
       <c r="B15">
-        <v>25232</v>
+        <v>26606</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="B16">
-        <v>11332</v>
+        <v>11547</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>79</v>
       </c>
       <c r="B17">
-        <v>5941</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>4590</v>
+        <v>4672</v>
       </c>
     </row>
   </sheetData>
@@ -3858,10 +3858,10 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3869,10 +3869,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3880,32 +3880,32 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>68</v>
       </c>
       <c r="C6">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3913,10 +3913,10 @@
         <v>123</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3924,10 +3924,10 @@
         <v>122</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3938,7 +3938,7 @@
         <v>40</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3949,7 +3949,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3990,10 +3990,10 @@
         <v>77</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4066,7 +4066,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>344476</v>
+        <v>359813</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>169862</v>
+        <v>178507</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>81456</v>
+        <v>85700</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>79633</v>
+        <v>83399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>55736</v>
+        <v>58016</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>48966</v>
+        <v>52107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4114,7 +4114,7 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>37973</v>
+        <v>39986</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4122,7 +4122,7 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>26778</v>
+        <v>27991</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4130,7 +4130,7 @@
         <v>123</v>
       </c>
       <c r="B10">
-        <v>25720</v>
+        <v>27684</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>24053</v>
+        <v>26430</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4146,23 +4146,23 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>24014</v>
+        <v>26085</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B13">
-        <v>15201</v>
+        <v>16171</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>14853</v>
+        <v>15822</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>124</v>
       </c>
       <c r="B15">
-        <v>3951</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>125</v>
       </c>
       <c r="B16">
-        <v>3951</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>2710</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>1167</v>
+        <v>1205</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -45,24 +45,24 @@
     <t>Kaskade, Ella Vos</t>
   </si>
   <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
     <t>Blasterjaxx, Dr Phunk</t>
   </si>
   <si>
-    <t>Mike Williams</t>
-  </si>
-  <si>
     <t>Bad Computer</t>
   </si>
   <si>
     <t>Ellis</t>
   </si>
   <si>
+    <t>Koven</t>
+  </si>
+  <si>
     <t>BlackCode, Jess Sarubbi</t>
   </si>
   <si>
-    <t>Koven</t>
-  </si>
-  <si>
     <t>NEONI</t>
   </si>
   <si>
@@ -72,12 +72,12 @@
     <t>Danimal</t>
   </si>
   <si>
+    <t>Pixel Terror, ESPER, Isaiah Brown</t>
+  </si>
+  <si>
     <t>insaneintherainmusic</t>
   </si>
   <si>
-    <t>Pixel Terror, ESPER, Isaiah Brown</t>
-  </si>
-  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
@@ -96,12 +96,12 @@
     <t>NØ SIGNE</t>
   </si>
   <si>
+    <t>Ryos, HAVOQ, Nino Lucarelli</t>
+  </si>
+  <si>
     <t>KAAZE</t>
   </si>
   <si>
-    <t>Ryos, HAVOQ, Nino Lucarelli</t>
-  </si>
-  <si>
     <t>SWACQ</t>
   </si>
   <si>
@@ -135,24 +135,24 @@
     <t>Miles To Go</t>
   </si>
   <si>
+    <t>Get Dirty</t>
+  </si>
+  <si>
     <t>Here Without You</t>
   </si>
   <si>
-    <t>Get Dirty</t>
-  </si>
-  <si>
     <t>Destroy Me</t>
   </si>
   <si>
     <t>Orbit</t>
   </si>
   <si>
+    <t>Light Up</t>
+  </si>
+  <si>
     <t>Scars</t>
   </si>
   <si>
-    <t>Light Up</t>
-  </si>
-  <si>
     <t>Where We Rise</t>
   </si>
   <si>
@@ -162,12 +162,12 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>Medusa</t>
+  </si>
+  <si>
     <t>You Will Know Our Names</t>
   </si>
   <si>
-    <t>Medusa</t>
-  </si>
-  <si>
     <t>In My Soul</t>
   </si>
   <si>
@@ -189,12 +189,12 @@
     <t>Closer</t>
   </si>
   <si>
+    <t>Fool's Gold</t>
+  </si>
+  <si>
     <t>Midnight Runners</t>
   </si>
   <si>
-    <t>Fool's Gold</t>
-  </si>
-  <si>
     <t>Purification</t>
   </si>
   <si>
@@ -228,10 +228,10 @@
     <t>Monstercat Silk, Monstercat</t>
   </si>
   <si>
+    <t>Musical Freedom, Spinnin' Records</t>
+  </si>
+  <si>
     <t>Maxximize Records, Spinnin' Records</t>
-  </si>
-  <si>
-    <t>Musical Freedom, Spinnin' Records</t>
   </si>
   <si>
     <t>Monstercat</t>
@@ -788,7 +788,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>1995212</v>
+        <v>2072666</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -802,7 +802,7 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>1394271</v>
+        <v>1435956</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -816,7 +816,7 @@
         <v>67</v>
       </c>
       <c r="D4">
-        <v>900052</v>
+        <v>947916</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -830,7 +830,7 @@
         <v>68</v>
       </c>
       <c r="D5">
-        <v>292228</v>
+        <v>302206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -844,7 +844,7 @@
         <v>69</v>
       </c>
       <c r="D6">
-        <v>286590</v>
+        <v>299929</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -858,7 +858,7 @@
         <v>70</v>
       </c>
       <c r="D7">
-        <v>197687</v>
+        <v>204596</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -872,7 +872,7 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>180945</v>
+        <v>195493</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -883,10 +883,10 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>174275</v>
+        <v>179307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -897,10 +897,10 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>171986</v>
+        <v>178567</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -914,7 +914,7 @@
         <v>71</v>
       </c>
       <c r="D11">
-        <v>151050</v>
+        <v>160292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -928,7 +928,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>131464</v>
+        <v>135317</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -939,10 +939,10 @@
         <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>130410</v>
+        <v>133964</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -953,10 +953,10 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>119663</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>119379</v>
+        <v>123656</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -984,7 +984,7 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <v>118895</v>
+        <v>122776</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -998,7 +998,7 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>88760</v>
+        <v>91681</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>73</v>
       </c>
       <c r="D18">
-        <v>82466</v>
+        <v>84159</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="D19">
-        <v>76435</v>
+        <v>76928</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1040,12 +1040,12 @@
         <v>72</v>
       </c>
       <c r="D20">
-        <v>58009</v>
+        <v>61163</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
@@ -1054,7 +1054,7 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <v>57172</v>
+        <v>59887</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>74</v>
       </c>
       <c r="D22">
-        <v>40650</v>
+        <v>42539</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>75</v>
       </c>
       <c r="D23">
-        <v>38802</v>
+        <v>40141</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <v>38749</v>
+        <v>39951</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>36195</v>
+        <v>37085</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>74</v>
       </c>
       <c r="D26">
-        <v>35255</v>
+        <v>36309</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>76</v>
       </c>
       <c r="D27">
-        <v>26717</v>
+        <v>27849</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>77</v>
       </c>
       <c r="D28">
-        <v>26606</v>
+        <v>27682</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>11547</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>79</v>
       </c>
       <c r="D30">
-        <v>6669</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>80</v>
       </c>
       <c r="D31">
-        <v>4672</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -1252,44 +1252,44 @@
         <v>72</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E4">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1303,10 +1303,10 @@
         <v>66</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,18 +1337,18 @@
         <v>72</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
@@ -1357,15 +1357,15 @@
         <v>34</v>
       </c>
       <c r="E8">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -1379,19 +1379,19 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1422,21 +1422,21 @@
         <v>78</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>17</v>
@@ -1470,7 +1470,7 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1490,10 +1490,10 @@
         <v>65</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1510,7 +1510,7 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1549,10 +1549,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>70</v>
@@ -1561,21 +1561,21 @@
         <v>4</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -1583,27 +1583,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>70</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -1806,7 +1806,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>178507</v>
+        <v>186217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="D3">
-        <v>83399</v>
+        <v>87113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>73269</v>
+        <v>75848</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1848,21 +1848,21 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>52829</v>
+        <v>56096</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
       <c r="D6">
-        <v>49216</v>
+        <v>51312</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <v>39986</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1890,77 +1890,77 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>39290</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="D9">
-        <v>34252</v>
+        <v>35408</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10">
-        <v>27684</v>
+        <v>29796</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>27558</v>
+        <v>29437</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>27434</v>
+        <v>28925</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>26430</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1974,49 +1974,49 @@
         <v>72</v>
       </c>
       <c r="D14">
-        <v>24673</v>
+        <v>25698</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15">
-        <v>22628</v>
+        <v>23499</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>19288</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
         <v>75</v>
       </c>
       <c r="D17">
-        <v>18185</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>16774</v>
+        <v>17901</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>79</v>
       </c>
       <c r="D19">
-        <v>16171</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2055,10 +2055,10 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>16100</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>15822</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2086,21 +2086,21 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>13513</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
       </c>
       <c r="D23">
-        <v>9806</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>74</v>
       </c>
       <c r="D24">
-        <v>9311</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>7080</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>76</v>
       </c>
       <c r="D26">
-        <v>4143</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>78</v>
       </c>
       <c r="D27">
-        <v>2854</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>1205</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2189,7 +2189,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
         <v>53</v>
@@ -2217,10 +2217,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1995212</v>
+        <v>2072666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>1394271</v>
+        <v>1435956</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>85</v>
       </c>
       <c r="B4">
-        <v>1394271</v>
+        <v>1435956</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="B5">
-        <v>1394271</v>
+        <v>1435956</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>87</v>
       </c>
       <c r="B6">
-        <v>900052</v>
+        <v>947916</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2295,31 +2295,31 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>900052</v>
+        <v>947916</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>292228</v>
+        <v>302206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9">
-        <v>292228</v>
+        <v>299929</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="B10">
-        <v>286590</v>
+        <v>299929</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>197687</v>
+        <v>204596</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2335,39 +2335,39 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>180945</v>
+        <v>195493</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>176835</v>
+        <v>183543</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>174275</v>
+        <v>179307</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15">
-        <v>174275</v>
+        <v>178567</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="B16">
-        <v>171986</v>
+        <v>178567</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>151050</v>
+        <v>160292</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>131464</v>
+        <v>135317</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>131464</v>
+        <v>135317</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>130410</v>
+        <v>133964</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>95</v>
       </c>
       <c r="B21">
-        <v>119379</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>96</v>
       </c>
       <c r="B22">
-        <v>119379</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>97</v>
       </c>
       <c r="B23">
-        <v>119379</v>
+        <v>124232</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>118895</v>
+        <v>122776</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>88760</v>
+        <v>91681</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>88760</v>
+        <v>91681</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>82466</v>
+        <v>84159</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>101</v>
       </c>
       <c r="B28">
-        <v>82466</v>
+        <v>84159</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>102</v>
       </c>
       <c r="B29">
-        <v>76435</v>
+        <v>76928</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="B30">
-        <v>76435</v>
+        <v>76928</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>104</v>
       </c>
       <c r="B31">
-        <v>58009</v>
+        <v>61163</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>105</v>
       </c>
       <c r="B32">
-        <v>58009</v>
+        <v>61163</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2503,39 +2503,39 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>40650</v>
+        <v>42539</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="B34">
-        <v>38802</v>
+        <v>40141</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B35">
-        <v>38749</v>
+        <v>40141</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36">
-        <v>38749</v>
+        <v>40141</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>38749</v>
+        <v>39951</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>36195</v>
+        <v>37085</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>35255</v>
+        <v>36309</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>28</v>
       </c>
       <c r="B40">
-        <v>26717</v>
+        <v>27849</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="B41">
-        <v>26606</v>
+        <v>27682</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>26606</v>
+        <v>27682</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>26606</v>
+        <v>27682</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <v>11547</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>113</v>
       </c>
       <c r="B45">
-        <v>11547</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>114</v>
       </c>
       <c r="B46">
-        <v>11547</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>115</v>
       </c>
       <c r="B47">
-        <v>6669</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>116</v>
       </c>
       <c r="B48">
-        <v>6669</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B49">
-        <v>6669</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>118</v>
       </c>
       <c r="B50">
-        <v>4672</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>119</v>
       </c>
       <c r="B51">
-        <v>4672</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="B52">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         <v>104</v>
       </c>
       <c r="B2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2698,54 +2698,54 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2753,10 +2753,10 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2775,10 +2775,10 @@
         <v>93</v>
       </c>
       <c r="B10">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2786,10 +2786,10 @@
         <v>94</v>
       </c>
       <c r="B11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2800,7 +2800,7 @@
         <v>34</v>
       </c>
       <c r="C12">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2811,7 +2811,7 @@
         <v>34</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2822,12 +2822,12 @@
         <v>34</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>34</v>
@@ -2841,10 +2841,10 @@
         <v>89</v>
       </c>
       <c r="B16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2852,10 +2852,10 @@
         <v>90</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2885,10 +2885,10 @@
         <v>112</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2896,10 +2896,10 @@
         <v>113</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2907,10 +2907,10 @@
         <v>114</v>
       </c>
       <c r="B22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2962,10 +2962,10 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2976,7 +2976,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3036,21 +3036,21 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -3061,10 +3061,10 @@
         <v>95</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3072,10 +3072,10 @@
         <v>96</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3083,15 +3083,15 @@
         <v>97</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>178507</v>
+        <v>186217</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>83399</v>
+        <v>87113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>83399</v>
+        <v>87113</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>73269</v>
+        <v>75848</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>52829</v>
+        <v>56096</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>49216</v>
+        <v>51312</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>49216</v>
+        <v>51312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>49216</v>
+        <v>51312</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>109</v>
       </c>
       <c r="B10">
-        <v>39986</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>110</v>
       </c>
       <c r="B11">
-        <v>39986</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>39986</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3357,63 +3357,63 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>39290</v>
+        <v>40505</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>34252</v>
+        <v>35408</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
       <c r="B15">
-        <v>27684</v>
+        <v>29796</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B16">
-        <v>27558</v>
+        <v>29796</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>27558</v>
+        <v>29437</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>27434</v>
+        <v>28925</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B19">
-        <v>27434</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>26430</v>
+        <v>28578</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B21">
-        <v>24673</v>
+        <v>25698</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="B22">
-        <v>24673</v>
+        <v>25698</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="B23">
-        <v>22628</v>
+        <v>23499</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="B24">
-        <v>22628</v>
+        <v>23499</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>91</v>
       </c>
       <c r="B25">
-        <v>19288</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>92</v>
       </c>
       <c r="B26">
-        <v>19288</v>
+        <v>20301</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>18185</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>18185</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>18185</v>
+        <v>19134</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3493,7 +3493,7 @@
         <v>23</v>
       </c>
       <c r="B30">
-        <v>16774</v>
+        <v>17901</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>115</v>
       </c>
       <c r="B31">
-        <v>16171</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3509,7 +3509,7 @@
         <v>116</v>
       </c>
       <c r="B32">
-        <v>16171</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3517,7 +3517,7 @@
         <v>117</v>
       </c>
       <c r="B33">
-        <v>16171</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>16100</v>
+        <v>16694</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <v>15822</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>100</v>
       </c>
       <c r="B36">
-        <v>13513</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3549,15 +3549,15 @@
         <v>101</v>
       </c>
       <c r="B37">
-        <v>13513</v>
+        <v>13979</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>9806</v>
+        <v>10153</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>9311</v>
+        <v>9907</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>102</v>
       </c>
       <c r="B40">
-        <v>7080</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>103</v>
       </c>
       <c r="B41">
-        <v>7080</v>
+        <v>7391</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>4143</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>112</v>
       </c>
       <c r="B43">
-        <v>2854</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>113</v>
       </c>
       <c r="B44">
-        <v>2854</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>114</v>
       </c>
       <c r="B45">
-        <v>2854</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>118</v>
       </c>
       <c r="B46">
-        <v>1205</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="B47">
-        <v>1205</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3666,7 +3666,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>1995212</v>
+        <v>2072666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>1777704</v>
+        <v>1866001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>1430466</v>
+        <v>1473041</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>900052</v>
+        <v>947916</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>883503</v>
+        <v>914666</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>122</v>
       </c>
       <c r="B7">
-        <v>596913</v>
+        <v>612460</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>123</v>
       </c>
       <c r="B8">
-        <v>286590</v>
+        <v>302206</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>72</v>
       </c>
       <c r="B9">
-        <v>189473</v>
+        <v>196480</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3762,7 +3762,7 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>151050</v>
+        <v>160292</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3770,7 +3770,7 @@
         <v>75</v>
       </c>
       <c r="B11">
-        <v>77551</v>
+        <v>80092</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3778,7 +3778,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>75905</v>
+        <v>78848</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>124</v>
       </c>
       <c r="B13">
-        <v>26717</v>
+        <v>27849</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>125</v>
       </c>
       <c r="B14">
-        <v>26717</v>
+        <v>27849</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>77</v>
       </c>
       <c r="B15">
-        <v>26606</v>
+        <v>27682</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="B16">
-        <v>11547</v>
+        <v>11758</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>79</v>
       </c>
       <c r="B17">
-        <v>6669</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>4672</v>
+        <v>4727</v>
       </c>
     </row>
   </sheetData>
@@ -3858,10 +3858,10 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3869,10 +3869,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3880,10 +3880,10 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3905,7 +3905,7 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3913,10 +3913,10 @@
         <v>123</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3924,10 +3924,10 @@
         <v>122</v>
       </c>
       <c r="B8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3935,10 +3935,10 @@
         <v>70</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3957,10 +3957,10 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3968,10 +3968,10 @@
         <v>65</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4066,7 +4066,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>359813</v>
+        <v>374860</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>178507</v>
+        <v>186217</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>85700</v>
+        <v>89931</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>83399</v>
+        <v>87113</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>58016</v>
+        <v>60494</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>52107</v>
+        <v>55494</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4114,23 +4114,23 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>39986</v>
+        <v>41838</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B9">
-        <v>27991</v>
+        <v>29437</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>27684</v>
+        <v>29287</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4138,7 +4138,7 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>26430</v>
+        <v>28925</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>26085</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="B13">
-        <v>16171</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>66</v>
       </c>
       <c r="B14">
-        <v>15822</v>
+        <v>16470</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>124</v>
       </c>
       <c r="B15">
-        <v>4143</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>125</v>
       </c>
       <c r="B16">
-        <v>4143</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>2854</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>1205</v>
+        <v>1241</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -788,7 +788,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>2072666</v>
+        <v>2143257</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -802,7 +802,7 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>1435956</v>
+        <v>1475069</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -816,7 +816,7 @@
         <v>67</v>
       </c>
       <c r="D4">
-        <v>947916</v>
+        <v>998149</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -830,7 +830,7 @@
         <v>68</v>
       </c>
       <c r="D5">
-        <v>302206</v>
+        <v>321162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -844,7 +844,7 @@
         <v>69</v>
       </c>
       <c r="D6">
-        <v>299929</v>
+        <v>306136</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -858,7 +858,7 @@
         <v>70</v>
       </c>
       <c r="D7">
-        <v>204596</v>
+        <v>211609</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -872,7 +872,7 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>195493</v>
+        <v>209612</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -886,7 +886,7 @@
         <v>70</v>
       </c>
       <c r="D9">
-        <v>179307</v>
+        <v>186108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -900,7 +900,7 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>178567</v>
+        <v>182443</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -914,7 +914,7 @@
         <v>71</v>
       </c>
       <c r="D11">
-        <v>160292</v>
+        <v>170842</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -928,7 +928,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>135317</v>
+        <v>138486</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -942,7 +942,7 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>133964</v>
+        <v>137202</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -956,7 +956,7 @@
         <v>70</v>
       </c>
       <c r="D14">
-        <v>124232</v>
+        <v>129071</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -970,7 +970,7 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>123656</v>
+        <v>127509</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -984,7 +984,7 @@
         <v>70</v>
       </c>
       <c r="D16">
-        <v>122776</v>
+        <v>126478</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -998,7 +998,7 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>91681</v>
+        <v>94745</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1012,7 +1012,7 @@
         <v>73</v>
       </c>
       <c r="D18">
-        <v>84159</v>
+        <v>85717</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1026,7 +1026,7 @@
         <v>73</v>
       </c>
       <c r="D19">
-        <v>76928</v>
+        <v>77392</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1040,7 +1040,7 @@
         <v>72</v>
       </c>
       <c r="D20">
-        <v>61163</v>
+        <v>64227</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1054,7 +1054,7 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <v>59887</v>
+        <v>62301</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1068,7 +1068,7 @@
         <v>74</v>
       </c>
       <c r="D22">
-        <v>42539</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1082,7 +1082,7 @@
         <v>75</v>
       </c>
       <c r="D23">
-        <v>40141</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1096,7 +1096,7 @@
         <v>75</v>
       </c>
       <c r="D24">
-        <v>39951</v>
+        <v>40984</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1110,7 +1110,7 @@
         <v>66</v>
       </c>
       <c r="D25">
-        <v>37085</v>
+        <v>38011</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1124,7 +1124,7 @@
         <v>74</v>
       </c>
       <c r="D26">
-        <v>36309</v>
+        <v>37383</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1138,7 +1138,7 @@
         <v>76</v>
       </c>
       <c r="D27">
-        <v>27849</v>
+        <v>28923</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1152,7 +1152,7 @@
         <v>77</v>
       </c>
       <c r="D28">
-        <v>27682</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1166,7 +1166,7 @@
         <v>78</v>
       </c>
       <c r="D29">
-        <v>11758</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1180,7 +1180,7 @@
         <v>79</v>
       </c>
       <c r="D30">
-        <v>7444</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1194,7 +1194,7 @@
         <v>80</v>
       </c>
       <c r="D31">
-        <v>4727</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1208,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1252,10 @@
         <v>72</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1269,10 +1269,10 @@
         <v>66</v>
       </c>
       <c r="D3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1286,10 +1286,10 @@
         <v>68</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1306,7 +1306,7 @@
         <v>60</v>
       </c>
       <c r="E5">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1323,7 +1323,7 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1345,27 +1345,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
         <v>75</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>75</v>
@@ -1374,7 +1374,7 @@
         <v>34</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1391,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1566,10 +1566,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>70</v>
@@ -1578,15 +1578,15 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
@@ -1629,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1806,7 +1806,7 @@
         <v>65</v>
       </c>
       <c r="D2">
-        <v>186217</v>
+        <v>192709</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>67</v>
       </c>
       <c r="D3">
-        <v>87113</v>
+        <v>91010</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>70</v>
       </c>
       <c r="D4">
-        <v>75848</v>
+        <v>78233</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>70</v>
       </c>
       <c r="D5">
-        <v>56096</v>
+        <v>58990</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>51312</v>
+        <v>53589</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <v>41838</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>70</v>
       </c>
       <c r="D8">
-        <v>40505</v>
+        <v>41627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>70</v>
       </c>
       <c r="D9">
-        <v>35408</v>
+        <v>36488</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1918,35 +1918,35 @@
         <v>72</v>
       </c>
       <c r="D10">
-        <v>29796</v>
+        <v>32042</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>29437</v>
+        <v>31827</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>28925</v>
+        <v>30962</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>28578</v>
+        <v>29558</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="D14">
-        <v>25698</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>69</v>
       </c>
       <c r="D15">
-        <v>23499</v>
+        <v>24181</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>69</v>
       </c>
       <c r="D16">
-        <v>20301</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2016,35 +2016,35 @@
         <v>75</v>
       </c>
       <c r="D17">
-        <v>19134</v>
+        <v>19905</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D18">
-        <v>17901</v>
+        <v>19168</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>17526</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>69</v>
       </c>
       <c r="D20">
-        <v>16694</v>
+        <v>17204</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>66</v>
       </c>
       <c r="D21">
-        <v>16470</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2086,35 +2086,35 @@
         <v>73</v>
       </c>
       <c r="D22">
-        <v>13979</v>
+        <v>14381</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>10153</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>9907</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>7391</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>76</v>
       </c>
       <c r="D26">
-        <v>4347</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>78</v>
       </c>
       <c r="D27">
-        <v>3004</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>1241</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>73</v>
       </c>
       <c r="D29">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2255,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2072666</v>
+        <v>2143257</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2263,7 +2263,7 @@
         <v>84</v>
       </c>
       <c r="B3">
-        <v>1435956</v>
+        <v>1475069</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>85</v>
       </c>
       <c r="B4">
-        <v>1435956</v>
+        <v>1475069</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2279,7 +2279,7 @@
         <v>86</v>
       </c>
       <c r="B5">
-        <v>1435956</v>
+        <v>1475069</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>87</v>
       </c>
       <c r="B6">
-        <v>947916</v>
+        <v>998149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2295,7 +2295,7 @@
         <v>88</v>
       </c>
       <c r="B7">
-        <v>947916</v>
+        <v>998149</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>302206</v>
+        <v>321162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>89</v>
       </c>
       <c r="B9">
-        <v>299929</v>
+        <v>306136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>90</v>
       </c>
       <c r="B10">
-        <v>299929</v>
+        <v>306136</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2327,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>204596</v>
+        <v>211609</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>195493</v>
+        <v>209612</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>183543</v>
+        <v>189810</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>179307</v>
+        <v>186108</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>91</v>
       </c>
       <c r="B15">
-        <v>178567</v>
+        <v>182443</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>92</v>
       </c>
       <c r="B16">
-        <v>178567</v>
+        <v>182443</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2375,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>160292</v>
+        <v>170842</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2383,7 +2383,7 @@
         <v>93</v>
       </c>
       <c r="B18">
-        <v>135317</v>
+        <v>138486</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>94</v>
       </c>
       <c r="B19">
-        <v>135317</v>
+        <v>138486</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2399,7 +2399,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>133964</v>
+        <v>137202</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2407,7 +2407,7 @@
         <v>95</v>
       </c>
       <c r="B21">
-        <v>124232</v>
+        <v>129071</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2415,7 +2415,7 @@
         <v>96</v>
       </c>
       <c r="B22">
-        <v>124232</v>
+        <v>129071</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>97</v>
       </c>
       <c r="B23">
-        <v>124232</v>
+        <v>129071</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2431,7 +2431,7 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>122776</v>
+        <v>126478</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2439,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="B25">
-        <v>91681</v>
+        <v>94745</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>99</v>
       </c>
       <c r="B26">
-        <v>91681</v>
+        <v>94745</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2455,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="B27">
-        <v>84159</v>
+        <v>85717</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>101</v>
       </c>
       <c r="B28">
-        <v>84159</v>
+        <v>85717</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>102</v>
       </c>
       <c r="B29">
-        <v>76928</v>
+        <v>77392</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="B30">
-        <v>76928</v>
+        <v>77392</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>104</v>
       </c>
       <c r="B31">
-        <v>61163</v>
+        <v>64227</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2495,7 +2495,7 @@
         <v>105</v>
       </c>
       <c r="B32">
-        <v>61163</v>
+        <v>64227</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2503,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="B33">
-        <v>42539</v>
+        <v>45544</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="B34">
-        <v>40141</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>107</v>
       </c>
       <c r="B35">
-        <v>40141</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>108</v>
       </c>
       <c r="B36">
-        <v>40141</v>
+        <v>41384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>39951</v>
+        <v>40984</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2543,7 +2543,7 @@
         <v>26</v>
       </c>
       <c r="B38">
-        <v>37085</v>
+        <v>38011</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2551,7 +2551,7 @@
         <v>27</v>
       </c>
       <c r="B39">
-        <v>36309</v>
+        <v>37383</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>28</v>
       </c>
       <c r="B40">
-        <v>27849</v>
+        <v>28923</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2567,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="B41">
-        <v>27682</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>110</v>
       </c>
       <c r="B42">
-        <v>27682</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>111</v>
       </c>
       <c r="B43">
-        <v>27682</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2591,7 +2591,7 @@
         <v>112</v>
       </c>
       <c r="B44">
-        <v>11758</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2599,7 +2599,7 @@
         <v>113</v>
       </c>
       <c r="B45">
-        <v>11758</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2607,7 +2607,7 @@
         <v>114</v>
       </c>
       <c r="B46">
-        <v>11758</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>115</v>
       </c>
       <c r="B47">
-        <v>7444</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>116</v>
       </c>
       <c r="B48">
-        <v>7444</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2631,7 +2631,7 @@
         <v>117</v>
       </c>
       <c r="B49">
-        <v>7444</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2639,7 +2639,7 @@
         <v>118</v>
       </c>
       <c r="B50">
-        <v>4727</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2647,7 +2647,7 @@
         <v>119</v>
       </c>
       <c r="B51">
-        <v>4727</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2655,7 +2655,7 @@
         <v>33</v>
       </c>
       <c r="B52">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2687,10 +2687,10 @@
         <v>104</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2698,10 +2698,10 @@
         <v>105</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2709,10 +2709,10 @@
         <v>84</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2720,10 +2720,10 @@
         <v>85</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2731,10 +2731,10 @@
         <v>86</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2742,10 +2742,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2756,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2767,7 +2767,7 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2794,18 +2794,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>34</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>34</v>
@@ -2827,13 +2827,13 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>34</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2844,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2855,7 +2855,7 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3036,7 +3036,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -3047,40 +3047,40 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -3108,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3119,7 +3119,7 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3269,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>186217</v>
+        <v>192709</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3277,7 +3277,7 @@
         <v>87</v>
       </c>
       <c r="B3">
-        <v>87113</v>
+        <v>91010</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>88</v>
       </c>
       <c r="B4">
-        <v>87113</v>
+        <v>91010</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>75848</v>
+        <v>78233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3301,7 +3301,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>56096</v>
+        <v>58990</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>51312</v>
+        <v>53589</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>51312</v>
+        <v>53589</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>97</v>
       </c>
       <c r="B9">
-        <v>51312</v>
+        <v>53589</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>109</v>
       </c>
       <c r="B10">
-        <v>41838</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>110</v>
       </c>
       <c r="B11">
-        <v>41838</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>111</v>
       </c>
       <c r="B12">
-        <v>41838</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>40505</v>
+        <v>41627</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3365,7 +3365,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>35408</v>
+        <v>36488</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3373,7 +3373,7 @@
         <v>104</v>
       </c>
       <c r="B15">
-        <v>29796</v>
+        <v>32042</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3381,23 +3381,23 @@
         <v>105</v>
       </c>
       <c r="B16">
-        <v>29796</v>
+        <v>32042</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>29437</v>
+        <v>31827</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>28925</v>
+        <v>30962</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>98</v>
       </c>
       <c r="B19">
-        <v>28578</v>
+        <v>29558</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3413,7 +3413,7 @@
         <v>99</v>
       </c>
       <c r="B20">
-        <v>28578</v>
+        <v>29558</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3421,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B21">
-        <v>25698</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>94</v>
       </c>
       <c r="B22">
-        <v>25698</v>
+        <v>26730</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>89</v>
       </c>
       <c r="B23">
-        <v>23499</v>
+        <v>24181</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3445,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="B24">
-        <v>23499</v>
+        <v>24181</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>91</v>
       </c>
       <c r="B25">
-        <v>20301</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3461,7 +3461,7 @@
         <v>92</v>
       </c>
       <c r="B26">
-        <v>20301</v>
+        <v>20881</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3469,7 +3469,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>19134</v>
+        <v>19905</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>19134</v>
+        <v>19905</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3485,39 +3485,39 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>19134</v>
+        <v>19905</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="B30">
-        <v>17901</v>
+        <v>19168</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31">
-        <v>17526</v>
+        <v>19168</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>17526</v>
+        <v>19168</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>17526</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>16694</v>
+        <v>17204</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3533,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="B35">
-        <v>16470</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>100</v>
       </c>
       <c r="B36">
-        <v>13979</v>
+        <v>14381</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3549,23 +3549,23 @@
         <v>101</v>
       </c>
       <c r="B37">
-        <v>13979</v>
+        <v>14381</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>10153</v>
+        <v>10541</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>9907</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>102</v>
       </c>
       <c r="B40">
-        <v>7391</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3581,7 +3581,7 @@
         <v>103</v>
       </c>
       <c r="B41">
-        <v>7391</v>
+        <v>7813</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3589,7 +3589,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>4347</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3597,7 +3597,7 @@
         <v>112</v>
       </c>
       <c r="B43">
-        <v>3004</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>113</v>
       </c>
       <c r="B44">
-        <v>3004</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3613,7 +3613,7 @@
         <v>114</v>
       </c>
       <c r="B45">
-        <v>3004</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3621,7 +3621,7 @@
         <v>118</v>
       </c>
       <c r="B46">
-        <v>1241</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3629,7 +3629,7 @@
         <v>119</v>
       </c>
       <c r="B47">
-        <v>1241</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3637,7 +3637,7 @@
         <v>33</v>
       </c>
       <c r="B48">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3698,7 +3698,7 @@
         <v>65</v>
       </c>
       <c r="B2">
-        <v>2072666</v>
+        <v>2143257</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3706,7 +3706,7 @@
         <v>70</v>
       </c>
       <c r="B3">
-        <v>1866001</v>
+        <v>1955772</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3714,7 +3714,7 @@
         <v>66</v>
       </c>
       <c r="B4">
-        <v>1473041</v>
+        <v>1513080</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3722,7 +3722,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>947916</v>
+        <v>998149</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3730,7 +3730,7 @@
         <v>121</v>
       </c>
       <c r="B6">
-        <v>914666</v>
+        <v>946943</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3738,7 +3738,7 @@
         <v>122</v>
       </c>
       <c r="B7">
-        <v>612460</v>
+        <v>625781</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3746,7 +3746,7 @@
         <v>123</v>
       </c>
       <c r="B8">
-        <v>302206</v>
+        <v>321162</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3754,7 +3754,7 @@
         <v>72</v>
       </c>
       <c r="B9">
-        <v>196480</v>
+        <v>202713</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3762,23 +3762,23 @@
         <v>71</v>
       </c>
       <c r="B10">
-        <v>160292</v>
+        <v>170842</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11">
-        <v>80092</v>
+        <v>82927</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12">
-        <v>78848</v>
+        <v>82368</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3786,7 +3786,7 @@
         <v>124</v>
       </c>
       <c r="B13">
-        <v>27849</v>
+        <v>28923</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3794,7 +3794,7 @@
         <v>125</v>
       </c>
       <c r="B14">
-        <v>27849</v>
+        <v>28923</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3802,7 +3802,7 @@
         <v>77</v>
       </c>
       <c r="B15">
-        <v>27682</v>
+        <v>28753</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3810,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="B16">
-        <v>11758</v>
+        <v>11958</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3818,7 +3818,7 @@
         <v>79</v>
       </c>
       <c r="B17">
-        <v>7444</v>
+        <v>8479</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3826,7 +3826,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>4727</v>
+        <v>4780</v>
       </c>
     </row>
   </sheetData>
@@ -3858,10 +3858,10 @@
         <v>72</v>
       </c>
       <c r="B2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3869,10 +3869,10 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3880,10 +3880,10 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3894,7 +3894,7 @@
         <v>71</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3902,10 +3902,10 @@
         <v>75</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3913,10 +3913,10 @@
         <v>123</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3927,7 +3927,7 @@
         <v>52</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3938,7 +3938,7 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4066,7 +4066,7 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>374860</v>
+        <v>389495</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4074,7 +4074,7 @@
         <v>65</v>
       </c>
       <c r="B3">
-        <v>186217</v>
+        <v>192709</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4082,7 +4082,7 @@
         <v>121</v>
       </c>
       <c r="B4">
-        <v>89931</v>
+        <v>93228</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4090,7 +4090,7 @@
         <v>120</v>
       </c>
       <c r="B5">
-        <v>87113</v>
+        <v>91010</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4098,7 +4098,7 @@
         <v>122</v>
       </c>
       <c r="B6">
-        <v>60494</v>
+        <v>62266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4106,7 +4106,7 @@
         <v>72</v>
       </c>
       <c r="B7">
-        <v>55494</v>
+        <v>58772</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4114,31 +4114,31 @@
         <v>77</v>
       </c>
       <c r="B8">
-        <v>41838</v>
+        <v>43577</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>29437</v>
+        <v>31827</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B10">
-        <v>29287</v>
+        <v>30962</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B11">
-        <v>28925</v>
+        <v>30372</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4146,7 +4146,7 @@
         <v>74</v>
       </c>
       <c r="B12">
-        <v>27808</v>
+        <v>29680</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4154,7 +4154,7 @@
         <v>79</v>
       </c>
       <c r="B13">
-        <v>17526</v>
+        <v>19168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4162,7 +4162,7 @@
         <v>66</v>
       </c>
       <c r="B14">
-        <v>16470</v>
+        <v>17076</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4170,7 +4170,7 @@
         <v>124</v>
       </c>
       <c r="B15">
-        <v>4347</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4178,7 +4178,7 @@
         <v>125</v>
       </c>
       <c r="B16">
-        <v>4347</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4186,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="B17">
-        <v>3004</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4194,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="B18">
-        <v>1241</v>
+        <v>1278</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="131">
   <si>
     <t>Artist</t>
   </si>
@@ -51,12 +51,12 @@
     <t>Blasterjaxx, Dr Phunk</t>
   </si>
   <si>
+    <t>Ellis</t>
+  </si>
+  <si>
     <t>Bad Computer</t>
   </si>
   <si>
-    <t>Ellis</t>
-  </si>
-  <si>
     <t>Koven</t>
   </si>
   <si>
@@ -81,6 +81,9 @@
     <t>Masayoshi Iimori</t>
   </si>
   <si>
+    <t>Maduk, Gid Sedgwick</t>
+  </si>
+  <si>
     <t>Slippy, Fiora</t>
   </si>
   <si>
@@ -141,12 +144,12 @@
     <t>Here Without You</t>
   </si>
   <si>
+    <t>Orbit</t>
+  </si>
+  <si>
     <t>Destroy Me</t>
   </si>
   <si>
-    <t>Orbit</t>
-  </si>
-  <si>
     <t>Light Up</t>
   </si>
   <si>
@@ -171,6 +174,9 @@
     <t>In My Soul</t>
   </si>
   <si>
+    <t>Poison</t>
+  </si>
+  <si>
     <t>Zenith</t>
   </si>
   <si>
@@ -246,6 +252,9 @@
     <t>NONE</t>
   </si>
   <si>
+    <t>UKF</t>
+  </si>
+  <si>
     <t>Future House Music</t>
   </si>
   <si>
@@ -316,6 +325,12 @@
   </si>
   <si>
     <t>Pixel Terror</t>
+  </si>
+  <si>
+    <t>Gid Sedgwick</t>
+  </si>
+  <si>
+    <t>Maduk</t>
   </si>
   <si>
     <t>Fiora</t>
@@ -757,7 +772,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,13 +797,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>2143257</v>
+        <v>2188091</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -796,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
-        <v>1475069</v>
+        <v>1498813</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -810,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>998149</v>
+        <v>1032171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -824,13 +839,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>321162</v>
+        <v>334651</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -838,13 +853,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>306136</v>
+        <v>310368</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -852,13 +867,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>211609</v>
+        <v>218580</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -866,13 +881,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>209612</v>
+        <v>216899</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -880,13 +895,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>186108</v>
+        <v>190594</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -894,13 +909,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>182443</v>
+        <v>185186</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -908,13 +923,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>170842</v>
+        <v>178156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -922,13 +937,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D12">
-        <v>138486</v>
+        <v>140731</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -936,13 +951,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>137202</v>
+        <v>139195</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -950,13 +965,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>129071</v>
+        <v>132422</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -964,13 +979,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>127509</v>
+        <v>130657</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -978,13 +993,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>126478</v>
+        <v>128625</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -992,13 +1007,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D17">
-        <v>94745</v>
+        <v>126591</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1006,13 +1021,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18">
-        <v>85717</v>
+        <v>96719</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1020,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19">
-        <v>77392</v>
+        <v>86772</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1034,41 +1049,41 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D20">
-        <v>64227</v>
+        <v>77669</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21">
-        <v>62301</v>
+        <v>66162</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>45544</v>
+        <v>63563</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1076,13 +1091,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>41384</v>
+        <v>46992</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1090,13 +1105,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>40984</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1104,13 +1119,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>38011</v>
+        <v>41649</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1118,13 +1133,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>37383</v>
+        <v>38655</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1132,13 +1147,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>28923</v>
+        <v>38118</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1146,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28">
-        <v>28753</v>
+        <v>29636</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1160,13 +1175,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D29">
-        <v>11958</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1174,13 +1189,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30">
-        <v>8479</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1188,13 +1203,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>4780</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1202,13 +1217,27 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>597</v>
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1235,27 +1264,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1263,16 +1292,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>66</v>
       </c>
       <c r="E3">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1280,27 +1309,27 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>65</v>
       </c>
       <c r="E4">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -1311,19 +1340,19 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>55</v>
       </c>
       <c r="E6">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1331,10 +1360,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -1348,33 +1377,33 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>35</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1382,10 +1411,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -1399,10 +1428,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1413,13 +1442,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -1433,27 +1462,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1467,10 +1496,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1484,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1498,13 +1527,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -1515,30 +1544,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1549,19 +1578,19 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1569,10 +1598,10 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1583,13 +1612,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1600,47 +1629,47 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1651,13 +1680,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1668,13 +1697,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1688,10 +1717,10 @@
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1702,13 +1731,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1719,13 +1748,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1736,13 +1765,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1753,10 +1782,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -1765,6 +1794,23 @@
         <v>0</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
         <v>0</v>
       </c>
     </row>
@@ -1775,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1792,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1800,13 +1846,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>192709</v>
+        <v>196983</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1814,41 +1860,41 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>91010</v>
+        <v>93549</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
-        <v>78233</v>
+        <v>80023</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>58990</v>
+        <v>60921</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1856,27 +1902,27 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6">
-        <v>53589</v>
+        <v>55027</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>43577</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1884,13 +1930,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>41627</v>
+        <v>42463</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1898,27 +1944,27 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D9">
-        <v>36488</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>32042</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1926,13 +1972,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>31827</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1940,27 +1986,27 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>30962</v>
+        <v>32366</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>29558</v>
+        <v>30306</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1968,13 +2014,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>26730</v>
+        <v>27510</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1982,13 +2028,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>24181</v>
+        <v>24682</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1996,181 +2042,181 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>20881</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>19905</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>19168</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>19139</v>
+        <v>20018</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D20">
-        <v>17204</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>17076</v>
+        <v>17582</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>14381</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>10541</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>10467</v>
+        <v>10949</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D25">
-        <v>7813</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26">
-        <v>4511</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27">
-        <v>3110</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>1278</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2178,38 +2224,38 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>55</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2217,15 +2263,29 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>17</v>
       </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
         <v>0</v>
       </c>
     </row>
@@ -2236,7 +2296,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2255,47 +2315,47 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2143257</v>
+        <v>2188091</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B3">
-        <v>1475069</v>
+        <v>1498813</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4">
-        <v>1475069</v>
+        <v>1498813</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B5">
-        <v>1475069</v>
+        <v>1498813</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6">
-        <v>998149</v>
+        <v>1032171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B7">
-        <v>998149</v>
+        <v>1032171</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2303,23 +2363,23 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>321162</v>
+        <v>334651</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B9">
-        <v>306136</v>
+        <v>310368</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B10">
-        <v>306136</v>
+        <v>310368</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2327,7 +2387,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>211609</v>
+        <v>218580</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2335,7 +2395,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>209612</v>
+        <v>216899</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2343,7 +2403,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>189810</v>
+        <v>194220</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2351,23 +2411,23 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>186108</v>
+        <v>190594</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B15">
-        <v>182443</v>
+        <v>185186</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16">
-        <v>182443</v>
+        <v>185186</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2375,23 +2435,23 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>170842</v>
+        <v>178156</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18">
-        <v>138486</v>
+        <v>140731</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B19">
-        <v>138486</v>
+        <v>140731</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2399,31 +2459,31 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>137202</v>
+        <v>139195</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B21">
-        <v>129071</v>
+        <v>132422</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>129071</v>
+        <v>132422</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B23">
-        <v>129071</v>
+        <v>132422</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2431,231 +2491,247 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>126478</v>
+        <v>128625</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B25">
-        <v>94745</v>
+        <v>126591</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B26">
-        <v>94745</v>
+        <v>126591</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B27">
-        <v>85717</v>
+        <v>96719</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B28">
-        <v>85717</v>
+        <v>96719</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B29">
-        <v>77392</v>
+        <v>86772</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30">
-        <v>77392</v>
+        <v>86772</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B31">
-        <v>64227</v>
+        <v>77669</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B32">
-        <v>64227</v>
+        <v>77669</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B33">
-        <v>45544</v>
+        <v>66162</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B34">
-        <v>41384</v>
+        <v>66162</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>41384</v>
+        <v>46992</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B36">
-        <v>41384</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="B37">
-        <v>40984</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="B38">
-        <v>38011</v>
+        <v>42104</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>37383</v>
+        <v>41649</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>28923</v>
+        <v>38655</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>28753</v>
+        <v>38118</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>28753</v>
+        <v>29636</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B43">
-        <v>28753</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B44">
-        <v>11958</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B45">
-        <v>11958</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B46">
-        <v>11958</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B47">
-        <v>8479</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B48">
-        <v>8479</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B49">
-        <v>8479</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B50">
-        <v>4780</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B51">
-        <v>4780</v>
+        <v>9151</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B52">
-        <v>597</v>
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53">
+        <v>4842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54">
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2741,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2676,65 +2752,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
         <v>104</v>
       </c>
-      <c r="B2">
-        <v>101</v>
-      </c>
       <c r="C2">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>66</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>66</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>66</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2745,12 +2821,12 @@
         <v>65</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -2761,18 +2837,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>55</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10">
         <v>45</v>
@@ -2783,7 +2859,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -2794,51 +2870,51 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>35</v>
       </c>
       <c r="C12">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -2849,7 +2925,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -2860,7 +2936,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2871,7 +2947,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -2882,7 +2958,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -2893,7 +2969,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2904,7 +2980,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2915,29 +2991,29 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -2970,7 +3046,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2981,18 +3057,18 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3003,7 +3079,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3014,7 +3090,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3025,7 +3101,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3036,18 +3112,18 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3058,7 +3134,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -3069,7 +3145,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -3080,7 +3156,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -3091,40 +3167,40 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3135,7 +3211,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3146,7 +3222,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3157,7 +3233,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3168,7 +3244,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3179,7 +3255,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3190,7 +3266,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3201,7 +3277,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3212,7 +3288,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3223,7 +3299,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3234,12 +3310,34 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
         <v>0</v>
       </c>
     </row>
@@ -3250,7 +3348,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3261,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3269,87 +3367,87 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>192709</v>
+        <v>196983</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>91010</v>
+        <v>93549</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>91010</v>
+        <v>93549</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>78233</v>
+        <v>80023</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>58990</v>
+        <v>60921</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>53589</v>
+        <v>55027</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B8">
-        <v>53589</v>
+        <v>55027</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>53589</v>
+        <v>55027</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>43577</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11">
-        <v>43577</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>43577</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3357,7 +3455,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>41627</v>
+        <v>42463</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3365,23 +3463,23 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>36488</v>
+        <v>37303</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B15">
-        <v>32042</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B16">
-        <v>32042</v>
+        <v>33631</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3389,7 +3487,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>31827</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3397,223 +3495,223 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>30962</v>
+        <v>32366</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B19">
-        <v>29558</v>
+        <v>30306</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B20">
-        <v>29558</v>
+        <v>30306</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B21">
-        <v>26730</v>
+        <v>27510</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B22">
-        <v>26730</v>
+        <v>27510</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23">
-        <v>24181</v>
+        <v>24682</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24">
-        <v>24181</v>
+        <v>24682</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25">
-        <v>20881</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26">
-        <v>20881</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B27">
-        <v>19905</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B28">
-        <v>19905</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B29">
-        <v>19905</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B30">
-        <v>19168</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B31">
-        <v>19168</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B32">
-        <v>19168</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>19139</v>
+        <v>20018</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B34">
-        <v>17204</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B35">
-        <v>17076</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>14381</v>
+        <v>17582</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>14381</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="B38">
-        <v>10541</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B39">
-        <v>10467</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>7813</v>
+        <v>10949</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>7813</v>
+        <v>10725</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B42">
-        <v>4511</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B43">
-        <v>3110</v>
+        <v>8210</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>3110</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45">
-        <v>3110</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3621,7 +3719,7 @@
         <v>118</v>
       </c>
       <c r="B46">
-        <v>1278</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3629,36 +3727,36 @@
         <v>119</v>
       </c>
       <c r="B47">
-        <v>1278</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="B48">
-        <v>55</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3666,9 +3764,25 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>0</v>
       </c>
     </row>
@@ -3679,7 +3793,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3695,138 +3809,146 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>2143257</v>
+        <v>2188091</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3">
-        <v>1955772</v>
+        <v>2016010</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B4">
-        <v>1513080</v>
+        <v>1537468</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>998149</v>
+        <v>1032171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B6">
-        <v>946943</v>
+        <v>969400</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B7">
-        <v>625781</v>
+        <v>634749</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B8">
-        <v>321162</v>
+        <v>334651</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>202713</v>
+        <v>206893</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>170842</v>
+        <v>178156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11">
-        <v>82927</v>
+        <v>126591</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>82368</v>
+        <v>85110</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B13">
-        <v>28923</v>
+        <v>83753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B14">
-        <v>28923</v>
+        <v>29636</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="B15">
-        <v>28753</v>
+        <v>29636</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16">
-        <v>11958</v>
+        <v>29447</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B17">
-        <v>8479</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18">
-        <v>4780</v>
+        <v>9151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>4842</v>
       </c>
     </row>
   </sheetData>
@@ -3836,7 +3958,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3847,103 +3969,103 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>126</v>
       </c>
       <c r="C3">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>71</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>65</v>
       </c>
       <c r="C7">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -3954,7 +4076,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -3965,7 +4087,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -3976,7 +4098,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -3987,7 +4109,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -3998,7 +4120,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4009,7 +4131,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4020,7 +4142,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4031,12 +4153,23 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
@@ -4047,7 +4180,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4058,143 +4191,151 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2">
-        <v>389495</v>
+        <v>399592</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3">
-        <v>192709</v>
+        <v>196983</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B4">
-        <v>93228</v>
+        <v>95967</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B5">
-        <v>91010</v>
+        <v>93549</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6">
-        <v>62266</v>
+        <v>63601</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7">
-        <v>58772</v>
+        <v>61141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <v>43577</v>
+        <v>44779</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9">
-        <v>31827</v>
+        <v>33620</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B10">
-        <v>30962</v>
+        <v>32366</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>30372</v>
+        <v>31244</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12">
-        <v>29680</v>
+        <v>30967</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13">
-        <v>19168</v>
+        <v>20148</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B14">
-        <v>17076</v>
+        <v>18025</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="B15">
-        <v>4511</v>
+        <v>17517</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B16">
-        <v>4511</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="B17">
-        <v>3110</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B18">
-        <v>1278</v>
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>1358</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="137">
   <si>
     <t>Artist</t>
   </si>
@@ -72,12 +72,12 @@
     <t>Danimal</t>
   </si>
   <si>
+    <t>insaneintherainmusic</t>
+  </si>
+  <si>
     <t>Pixel Terror, ESPER, Isaiah Brown</t>
   </si>
   <si>
-    <t>insaneintherainmusic</t>
-  </si>
-  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
@@ -96,6 +96,9 @@
     <t>NUZB, Malarkey</t>
   </si>
   <si>
+    <t>PhoenixZ, EXABiOS</t>
+  </si>
+  <si>
     <t>NØ SIGNE</t>
   </si>
   <si>
@@ -165,12 +168,12 @@
     <t>Wolves</t>
   </si>
   <si>
+    <t>You Will Know Our Names</t>
+  </si>
+  <si>
     <t>Medusa</t>
   </si>
   <si>
-    <t>You Will Know Our Names</t>
-  </si>
-  <si>
     <t>In My Soul</t>
   </si>
   <si>
@@ -192,6 +195,9 @@
     <t>Feels Like Home</t>
   </si>
   <si>
+    <t>Don't Worry</t>
+  </si>
+  <si>
     <t>Closer</t>
   </si>
   <si>
@@ -255,6 +261,9 @@
     <t>UKF</t>
   </si>
   <si>
+    <t>Diversity, Diverge Music Group</t>
+  </si>
+  <si>
     <t>Future House Music</t>
   </si>
   <si>
@@ -357,6 +366,12 @@
     <t>NUZB</t>
   </si>
   <si>
+    <t>EXABiOS</t>
+  </si>
+  <si>
+    <t>PhoenixZ</t>
+  </si>
+  <si>
     <t>HAVOQ</t>
   </si>
   <si>
@@ -411,10 +426,13 @@
     <t>Musical Freedom</t>
   </si>
   <si>
+    <t>Diverge Music Group</t>
+  </si>
+  <si>
+    <t>Diversity</t>
+  </si>
+  <si>
     <t>Blossoms Asia</t>
-  </si>
-  <si>
-    <t>Diverge Music Group</t>
   </si>
 </sst>
 </file>
@@ -772,7 +790,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -797,13 +815,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>2188091</v>
+        <v>2244103</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -811,13 +829,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>1498813</v>
+        <v>1528051</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -825,13 +843,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4">
-        <v>1032171</v>
+        <v>1077064</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -839,13 +857,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5">
-        <v>334651</v>
+        <v>351767</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -853,13 +871,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>310368</v>
+        <v>315208</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -867,13 +885,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D7">
-        <v>218580</v>
+        <v>228369</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -881,13 +899,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>216899</v>
+        <v>222478</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -895,13 +913,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>190594</v>
+        <v>196250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -909,13 +927,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
-        <v>185186</v>
+        <v>188279</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -923,13 +941,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11">
-        <v>178156</v>
+        <v>186528</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -937,13 +955,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>140731</v>
+        <v>143767</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -951,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>139195</v>
+        <v>141415</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -965,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D14">
-        <v>132422</v>
+        <v>137123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -979,13 +997,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
-        <v>130657</v>
+        <v>136963</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -993,13 +1011,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16">
-        <v>128625</v>
+        <v>131337</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1007,13 +1025,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>126591</v>
+        <v>130546</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1021,13 +1039,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>96719</v>
+        <v>99210</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1035,13 +1053,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19">
-        <v>86772</v>
+        <v>88227</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1049,13 +1067,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>77669</v>
+        <v>78012</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1063,27 +1081,27 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D21">
-        <v>66162</v>
+        <v>68730</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22">
-        <v>63563</v>
+        <v>65111</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1091,13 +1109,13 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D23">
-        <v>46992</v>
+        <v>57579</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1105,13 +1123,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>42104</v>
+        <v>48624</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1119,13 +1137,13 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>41649</v>
+        <v>43078</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1133,13 +1151,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D26">
-        <v>38655</v>
+        <v>42505</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1147,13 +1165,13 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D27">
-        <v>38118</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1161,13 +1179,13 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>29636</v>
+        <v>38852</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1175,13 +1193,13 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>29447</v>
+        <v>30450</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1189,13 +1207,13 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30">
-        <v>12081</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1203,13 +1221,13 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <v>9151</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1217,13 +1235,13 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>4842</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1231,13 +1249,27 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D33">
-        <v>602</v>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1279,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1264,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1275,16 +1307,16 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1292,16 +1324,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1309,27 +1341,27 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>65</v>
       </c>
       <c r="E4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>60</v>
@@ -1340,13 +1372,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>55</v>
@@ -1360,10 +1392,10 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>45</v>
@@ -1374,30 +1406,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -1411,10 +1443,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>21</v>
@@ -1428,10 +1460,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -1442,19 +1474,19 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1462,10 +1494,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13">
         <v>18</v>
@@ -1476,13 +1508,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1496,10 +1528,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -1513,10 +1545,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1530,16 +1562,16 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1547,10 +1579,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -1561,13 +1593,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -1578,13 +1610,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1595,19 +1627,19 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1615,10 +1647,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1632,10 +1664,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1649,10 +1681,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1666,10 +1698,10 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1680,10 +1712,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>79</v>
@@ -1697,13 +1729,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1714,13 +1746,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1731,13 +1763,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1748,13 +1780,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1765,13 +1797,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1782,13 +1814,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1799,10 +1831,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -1811,6 +1843,23 @@
         <v>0</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
         <v>0</v>
       </c>
     </row>
@@ -1821,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1838,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1846,13 +1895,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>196983</v>
+        <v>203357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1860,13 +1909,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>93549</v>
+        <v>96688</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1874,13 +1923,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>80023</v>
+        <v>82057</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1888,41 +1937,41 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>60921</v>
+        <v>63371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6">
-        <v>55027</v>
+        <v>56932</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>44779</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1930,13 +1979,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>42463</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1944,41 +1993,41 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>37303</v>
+        <v>38307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>33631</v>
+        <v>35766</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>33620</v>
+        <v>35635</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1986,13 +2035,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>32366</v>
+        <v>34045</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2000,13 +2049,13 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13">
-        <v>30306</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2014,13 +2063,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>27510</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2028,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>24682</v>
+        <v>25325</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2042,55 +2091,55 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>21337</v>
+        <v>21862</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D17">
-        <v>20519</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18">
-        <v>20148</v>
+        <v>21163</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>20018</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2098,13 +2147,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20">
-        <v>18025</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2112,27 +2161,27 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>17582</v>
+        <v>18226</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>17517</v>
+        <v>18139</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2140,97 +2189,97 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>14637</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D24">
-        <v>10949</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>10725</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D26">
-        <v>8210</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27">
-        <v>4624</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28">
-        <v>3187</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29">
-        <v>1358</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2238,38 +2287,38 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>56</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2277,15 +2326,29 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
         <v>48</v>
       </c>
-      <c r="C33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33">
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
         <v>0</v>
       </c>
     </row>
@@ -2296,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2315,47 +2378,47 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2188091</v>
+        <v>2244103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3">
-        <v>1498813</v>
+        <v>1528051</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B4">
-        <v>1498813</v>
+        <v>1528051</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5">
-        <v>1498813</v>
+        <v>1528051</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B6">
-        <v>1032171</v>
+        <v>1077064</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B7">
-        <v>1032171</v>
+        <v>1077064</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2363,23 +2426,23 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>334651</v>
+        <v>351767</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B9">
-        <v>310368</v>
+        <v>315208</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10">
-        <v>310368</v>
+        <v>315208</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2387,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>218580</v>
+        <v>228369</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2395,15 +2458,15 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>216899</v>
+        <v>222478</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>194220</v>
+        <v>202234</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2411,23 +2474,23 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>190594</v>
+        <v>196250</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B15">
-        <v>185186</v>
+        <v>188279</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16">
-        <v>185186</v>
+        <v>188279</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2435,23 +2498,23 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <v>178156</v>
+        <v>186528</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B18">
-        <v>140731</v>
+        <v>143767</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B19">
-        <v>140731</v>
+        <v>143767</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2459,31 +2522,31 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>139195</v>
+        <v>141415</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B21">
-        <v>132422</v>
+        <v>136963</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B22">
-        <v>132422</v>
+        <v>136963</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>132422</v>
+        <v>136963</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2491,247 +2554,263 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>128625</v>
+        <v>131337</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B25">
-        <v>126591</v>
+        <v>130546</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B26">
-        <v>126591</v>
+        <v>130546</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B27">
-        <v>96719</v>
+        <v>99210</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B28">
-        <v>96719</v>
+        <v>99210</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29">
-        <v>86772</v>
+        <v>88227</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30">
-        <v>86772</v>
+        <v>88227</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B31">
-        <v>77669</v>
+        <v>78012</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B32">
-        <v>77669</v>
+        <v>78012</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B33">
-        <v>66162</v>
+        <v>68730</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B34">
-        <v>66162</v>
+        <v>68730</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="B35">
-        <v>46992</v>
+        <v>57579</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B36">
-        <v>42104</v>
+        <v>57579</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>42104</v>
+        <v>48624</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B38">
-        <v>42104</v>
+        <v>43078</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="B39">
-        <v>41649</v>
+        <v>43078</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B40">
-        <v>38655</v>
+        <v>43078</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>38118</v>
+        <v>42505</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>29636</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>29447</v>
+        <v>38852</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>29447</v>
+        <v>30450</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B45">
-        <v>29447</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B46">
-        <v>12081</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B47">
-        <v>12081</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B48">
-        <v>12081</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B49">
-        <v>9151</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B50">
-        <v>9151</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B51">
-        <v>9151</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B52">
-        <v>4842</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B53">
-        <v>4842</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B54">
-        <v>602</v>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55">
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -2741,7 +2820,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2752,65 +2831,65 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C3">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2821,12 +2900,12 @@
         <v>65</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -2837,7 +2916,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>55</v>
@@ -2848,7 +2927,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>45</v>
@@ -2859,7 +2938,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -2870,40 +2949,40 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -2914,7 +2993,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <v>21</v>
@@ -2925,7 +3004,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <v>21</v>
@@ -2936,7 +3015,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -2947,7 +3026,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -2958,40 +3037,40 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B20">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -3002,7 +3081,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B24">
         <v>18</v>
@@ -3013,7 +3092,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>16</v>
@@ -3052,7 +3131,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3068,7 +3147,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -3079,7 +3158,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3090,7 +3169,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3101,7 +3180,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3112,7 +3191,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3123,35 +3202,35 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3167,7 +3246,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3178,7 +3257,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -3200,7 +3279,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3211,7 +3290,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -3222,7 +3301,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -3233,7 +3312,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -3244,7 +3323,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -3255,7 +3334,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -3266,7 +3345,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -3277,7 +3356,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -3288,7 +3367,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -3299,7 +3378,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -3310,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3321,7 +3400,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3332,12 +3411,34 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>0</v>
       </c>
     </row>
@@ -3348,7 +3449,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3359,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3367,23 +3468,23 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>196983</v>
+        <v>203357</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B3">
-        <v>93549</v>
+        <v>96688</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4">
-        <v>93549</v>
+        <v>96688</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3391,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>80023</v>
+        <v>82057</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3399,55 +3500,55 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>60921</v>
+        <v>63371</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7">
-        <v>55027</v>
+        <v>56932</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8">
-        <v>55027</v>
+        <v>56932</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9">
-        <v>55027</v>
+        <v>56932</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B10">
-        <v>44779</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <v>44779</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <v>44779</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3455,7 +3556,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>42463</v>
+        <v>43420</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3463,31 +3564,31 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>37303</v>
+        <v>38307</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>33631</v>
+        <v>35766</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B16">
-        <v>33631</v>
+        <v>35635</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B17">
-        <v>33620</v>
+        <v>35635</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3495,143 +3596,143 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>32366</v>
+        <v>34045</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B19">
-        <v>30306</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B20">
-        <v>30306</v>
+        <v>31095</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B21">
-        <v>27510</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>27510</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B23">
-        <v>24682</v>
+        <v>25325</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B24">
-        <v>24682</v>
+        <v>25325</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B25">
-        <v>21337</v>
+        <v>21862</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B26">
-        <v>21337</v>
+        <v>21862</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B27">
-        <v>20519</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B28">
-        <v>20519</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B29">
-        <v>20519</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>20148</v>
+        <v>21163</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B31">
-        <v>20148</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B32">
-        <v>20148</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B33">
-        <v>20018</v>
+        <v>21019</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>18025</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B35">
-        <v>18025</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3639,95 +3740,95 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>17582</v>
+        <v>18226</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>17517</v>
+        <v>18139</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B38">
-        <v>14637</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B39">
-        <v>14637</v>
+        <v>15060</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>10949</v>
+        <v>11632</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>10725</v>
+        <v>11048</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>8210</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B43">
-        <v>8210</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B44">
-        <v>4624</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B45">
-        <v>3187</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>3187</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B47">
-        <v>3187</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3735,7 +3836,7 @@
         <v>123</v>
       </c>
       <c r="B48">
-        <v>1358</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3743,36 +3844,36 @@
         <v>124</v>
       </c>
       <c r="B49">
-        <v>1358</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B50">
-        <v>56</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -3780,9 +3881,25 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56">
         <v>0</v>
       </c>
     </row>
@@ -3793,7 +3910,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3809,146 +3926,154 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2">
-        <v>2188091</v>
+        <v>2244103</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>2016010</v>
+        <v>2091671</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>1537468</v>
+        <v>1567657</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>1032171</v>
+        <v>1077064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B6">
-        <v>969400</v>
+        <v>996669</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>634749</v>
+        <v>644902</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B8">
-        <v>334651</v>
+        <v>351767</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9">
-        <v>206893</v>
+        <v>212497</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10">
-        <v>178156</v>
+        <v>186528</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>126591</v>
+        <v>130546</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B12">
-        <v>85110</v>
+        <v>88029</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>83753</v>
+        <v>87476</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="B14">
-        <v>29636</v>
+        <v>85583</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B15">
-        <v>29636</v>
+        <v>57579</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="B16">
-        <v>29447</v>
+        <v>30450</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B17">
-        <v>12081</v>
+        <v>30375</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B18">
-        <v>9151</v>
+        <v>12241</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B19">
-        <v>4842</v>
+        <v>9950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>4909</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3969,81 +4094,81 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>118</v>
       </c>
       <c r="C4">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>71</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>65</v>
       </c>
       <c r="C7">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>53</v>
@@ -4054,18 +4179,18 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>44</v>
       </c>
       <c r="C9">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -4076,18 +4201,18 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -4098,7 +4223,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -4109,7 +4234,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4120,7 +4245,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4131,7 +4256,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4142,7 +4267,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4153,7 +4278,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4164,12 +4289,23 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
@@ -4180,7 +4316,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4191,151 +4327,159 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2">
-        <v>399592</v>
+        <v>411870</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>196983</v>
+        <v>203357</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B4">
-        <v>95967</v>
+        <v>99458</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B5">
-        <v>93549</v>
+        <v>96688</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B6">
-        <v>63601</v>
+        <v>65413</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>61141</v>
+        <v>64227</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B8">
-        <v>44779</v>
+        <v>46516</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>33620</v>
+        <v>35766</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B10">
-        <v>32366</v>
+        <v>34045</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>31244</v>
+        <v>32795</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B12">
-        <v>30967</v>
+        <v>32067</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13">
-        <v>20148</v>
+        <v>21318</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14">
-        <v>18025</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>17517</v>
+        <v>18139</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B16">
-        <v>4624</v>
+        <v>14185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B17">
-        <v>4624</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B18">
-        <v>3187</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19">
-        <v>1358</v>
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>1431</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -60,12 +60,12 @@
     <t>Koven</t>
   </si>
   <si>
+    <t>NEONI</t>
+  </si>
+  <si>
     <t>BlackCode, Jess Sarubbi</t>
   </si>
   <si>
-    <t>NEONI</t>
-  </si>
-  <si>
     <t>Julian Jordan, Guy Arthur</t>
   </si>
   <si>
@@ -78,12 +78,12 @@
     <t>Pixel Terror, ESPER, Isaiah Brown</t>
   </si>
   <si>
+    <t>Maduk, Gid Sedgwick</t>
+  </si>
+  <si>
     <t>Masayoshi Iimori</t>
   </si>
   <si>
-    <t>Maduk, Gid Sedgwick</t>
-  </si>
-  <si>
     <t>Slippy, Fiora</t>
   </si>
   <si>
@@ -156,12 +156,12 @@
     <t>Light Up</t>
   </si>
   <si>
+    <t>Where We Rise</t>
+  </si>
+  <si>
     <t>Scars</t>
   </si>
   <si>
-    <t>Where We Rise</t>
-  </si>
-  <si>
     <t>Let Me Be The One</t>
   </si>
   <si>
@@ -174,10 +174,10 @@
     <t>Medusa</t>
   </si>
   <si>
+    <t>Poison</t>
+  </si>
+  <si>
     <t>In My Soul</t>
-  </si>
-  <si>
-    <t>Poison</t>
   </si>
   <si>
     <t>Zenith</t>
@@ -821,7 +821,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>2244103</v>
+        <v>2315415</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -835,7 +835,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <v>1528051</v>
+        <v>1566036</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -849,7 +849,7 @@
         <v>71</v>
       </c>
       <c r="D4">
-        <v>1077064</v>
+        <v>1130819</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -863,7 +863,7 @@
         <v>72</v>
       </c>
       <c r="D5">
-        <v>351767</v>
+        <v>370534</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -877,7 +877,7 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>315208</v>
+        <v>320696</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -891,7 +891,7 @@
         <v>74</v>
       </c>
       <c r="D7">
-        <v>228369</v>
+        <v>239902</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -905,7 +905,7 @@
         <v>74</v>
       </c>
       <c r="D8">
-        <v>222478</v>
+        <v>229123</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -919,7 +919,7 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>196250</v>
+        <v>203274</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -930,10 +930,10 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>188279</v>
+        <v>197249</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -944,10 +944,10 @@
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11">
-        <v>186528</v>
+        <v>192469</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -961,7 +961,7 @@
         <v>76</v>
       </c>
       <c r="D12">
-        <v>143767</v>
+        <v>147751</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>141415</v>
+        <v>144392</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -989,7 +989,7 @@
         <v>77</v>
       </c>
       <c r="D14">
-        <v>137123</v>
+        <v>142754</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1003,7 +1003,7 @@
         <v>74</v>
       </c>
       <c r="D15">
-        <v>136963</v>
+        <v>142662</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1014,10 +1014,10 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>131337</v>
+        <v>135226</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1028,10 +1028,10 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>130546</v>
+        <v>134898</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>99210</v>
+        <v>102064</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="D19">
-        <v>88227</v>
+        <v>90068</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1073,7 +1073,7 @@
         <v>77</v>
       </c>
       <c r="D20">
-        <v>78012</v>
+        <v>78429</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>76</v>
       </c>
       <c r="D21">
-        <v>68730</v>
+        <v>72301</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1101,7 +1101,7 @@
         <v>77</v>
       </c>
       <c r="D22">
-        <v>65111</v>
+        <v>66876</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1115,7 +1115,7 @@
         <v>79</v>
       </c>
       <c r="D23">
-        <v>57579</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1129,7 +1129,7 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <v>48624</v>
+        <v>50396</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>43078</v>
+        <v>44380</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1157,7 +1157,7 @@
         <v>81</v>
       </c>
       <c r="D26">
-        <v>42505</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1171,7 +1171,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>39606</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1185,7 +1185,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>38852</v>
+        <v>39757</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1199,7 +1199,7 @@
         <v>82</v>
       </c>
       <c r="D29">
-        <v>30450</v>
+        <v>31705</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1213,7 +1213,7 @@
         <v>83</v>
       </c>
       <c r="D30">
-        <v>30375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1227,7 +1227,7 @@
         <v>84</v>
       </c>
       <c r="D31">
-        <v>12241</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1241,7 +1241,7 @@
         <v>85</v>
       </c>
       <c r="D32">
-        <v>9950</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1255,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="D33">
-        <v>4909</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1269,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -1313,44 +1313,44 @@
         <v>76</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3">
         <v>70</v>
       </c>
-      <c r="D3">
-        <v>67</v>
-      </c>
       <c r="E3">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1384,7 +1384,7 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1398,10 +1398,10 @@
         <v>76</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1415,10 +1415,10 @@
         <v>81</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1432,10 +1432,10 @@
         <v>81</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1457,44 +1457,44 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>73</v>
@@ -1576,47 +1576,47 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <v>5</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>75</v>
@@ -1901,7 +1901,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>203357</v>
+        <v>210702</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>71</v>
       </c>
       <c r="D3">
-        <v>96688</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>82057</v>
+        <v>84559</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="D5">
-        <v>63371</v>
+        <v>67235</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>74</v>
       </c>
       <c r="D6">
-        <v>56932</v>
+        <v>59295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1971,21 +1971,21 @@
         <v>83</v>
       </c>
       <c r="D7">
-        <v>46516</v>
+        <v>48580</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
         <v>74</v>
       </c>
       <c r="D8">
-        <v>43420</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1999,21 +1999,21 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>38307</v>
+        <v>39557</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>75</v>
       </c>
       <c r="D10">
-        <v>35766</v>
+        <v>38585</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>76</v>
       </c>
       <c r="D11">
-        <v>35635</v>
+        <v>38321</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>34045</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="D13">
-        <v>31095</v>
+        <v>32161</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>76</v>
       </c>
       <c r="D14">
-        <v>28592</v>
+        <v>30180</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2083,35 +2083,35 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>25325</v>
+        <v>26153</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>21862</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>21318</v>
+        <v>22653</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <v>21163</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2139,21 +2139,21 @@
         <v>81</v>
       </c>
       <c r="D19">
-        <v>21019</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
       <c r="D20">
-        <v>18874</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2167,7 +2167,7 @@
         <v>73</v>
       </c>
       <c r="D21">
-        <v>18226</v>
+        <v>18872</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2181,7 +2181,7 @@
         <v>70</v>
       </c>
       <c r="D22">
-        <v>18139</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="D23">
-        <v>15060</v>
+        <v>15546</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <v>11632</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>11048</v>
+        <v>11439</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>79</v>
       </c>
       <c r="D26">
-        <v>9429</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>77</v>
       </c>
       <c r="D27">
-        <v>8577</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>82</v>
       </c>
       <c r="D28">
-        <v>4756</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="D29">
-        <v>3267</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2293,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="D30">
-        <v>1431</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2244103</v>
+        <v>2315415</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>1528051</v>
+        <v>1566036</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>1528051</v>
+        <v>1566036</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <v>1528051</v>
+        <v>1566036</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <v>1077064</v>
+        <v>1130819</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>1077064</v>
+        <v>1130819</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>351767</v>
+        <v>370534</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <v>315208</v>
+        <v>320696</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>96</v>
       </c>
       <c r="B10">
-        <v>315208</v>
+        <v>320696</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>228369</v>
+        <v>239902</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>222478</v>
+        <v>229123</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>202234</v>
+        <v>209630</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2474,31 +2474,31 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>196250</v>
+        <v>203274</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>188279</v>
+        <v>197249</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16">
-        <v>188279</v>
+        <v>192469</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>186528</v>
+        <v>192469</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>99</v>
       </c>
       <c r="B18">
-        <v>143767</v>
+        <v>147751</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>100</v>
       </c>
       <c r="B19">
-        <v>143767</v>
+        <v>147751</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>141415</v>
+        <v>144392</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>101</v>
       </c>
       <c r="B21">
-        <v>136963</v>
+        <v>142662</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>102</v>
       </c>
       <c r="B22">
-        <v>136963</v>
+        <v>142662</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2546,31 +2546,31 @@
         <v>103</v>
       </c>
       <c r="B23">
-        <v>136963</v>
+        <v>142662</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="B24">
-        <v>131337</v>
+        <v>135226</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25">
-        <v>130546</v>
+        <v>135226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>130546</v>
+        <v>134898</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>99210</v>
+        <v>102064</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>99210</v>
+        <v>102064</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>88227</v>
+        <v>90068</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>109</v>
       </c>
       <c r="B30">
-        <v>88227</v>
+        <v>90068</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>110</v>
       </c>
       <c r="B31">
-        <v>78012</v>
+        <v>78429</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>111</v>
       </c>
       <c r="B32">
-        <v>78012</v>
+        <v>78429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>112</v>
       </c>
       <c r="B33">
-        <v>68730</v>
+        <v>72301</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>113</v>
       </c>
       <c r="B34">
-        <v>68730</v>
+        <v>72301</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>114</v>
       </c>
       <c r="B35">
-        <v>57579</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>115</v>
       </c>
       <c r="B36">
-        <v>57579</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>48624</v>
+        <v>50396</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>116</v>
       </c>
       <c r="B38">
-        <v>43078</v>
+        <v>44380</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>117</v>
       </c>
       <c r="B39">
-        <v>43078</v>
+        <v>44380</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>118</v>
       </c>
       <c r="B40">
-        <v>43078</v>
+        <v>44380</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>42505</v>
+        <v>43477</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>39606</v>
+        <v>40700</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>29</v>
       </c>
       <c r="B43">
-        <v>38852</v>
+        <v>39757</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="B44">
-        <v>30450</v>
+        <v>31705</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>119</v>
       </c>
       <c r="B45">
-        <v>30375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>120</v>
       </c>
       <c r="B46">
-        <v>30375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>121</v>
       </c>
       <c r="B47">
-        <v>30375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>122</v>
       </c>
       <c r="B48">
-        <v>12241</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>123</v>
       </c>
       <c r="B49">
-        <v>12241</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>124</v>
       </c>
       <c r="B50">
-        <v>12241</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>125</v>
       </c>
       <c r="B51">
-        <v>9950</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>126</v>
       </c>
       <c r="B52">
-        <v>9950</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>127</v>
       </c>
       <c r="B53">
-        <v>9950</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>128</v>
       </c>
       <c r="B54">
-        <v>4909</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>129</v>
       </c>
       <c r="B55">
-        <v>4909</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="B56">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -2842,10 +2842,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2853,26 +2853,26 @@
         <v>113</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C3">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>67</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>67</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2922,7 +2922,7 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2930,10 +2930,10 @@
         <v>99</v>
       </c>
       <c r="B10">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2941,10 +2941,10 @@
         <v>100</v>
       </c>
       <c r="B11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2952,10 +2952,10 @@
         <v>116</v>
       </c>
       <c r="B12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2963,10 +2963,10 @@
         <v>117</v>
       </c>
       <c r="B13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2974,10 +2974,10 @@
         <v>118</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2985,10 +2985,10 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3015,57 +3015,57 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3136,51 +3136,51 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -3389,7 +3389,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>203357</v>
+        <v>210702</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="B3">
-        <v>96688</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>94</v>
       </c>
       <c r="B4">
-        <v>96688</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>82057</v>
+        <v>84559</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>63371</v>
+        <v>67235</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>101</v>
       </c>
       <c r="B7">
-        <v>56932</v>
+        <v>59295</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>102</v>
       </c>
       <c r="B8">
-        <v>56932</v>
+        <v>59295</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>103</v>
       </c>
       <c r="B9">
-        <v>56932</v>
+        <v>59295</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>119</v>
       </c>
       <c r="B10">
-        <v>46516</v>
+        <v>48580</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>120</v>
       </c>
       <c r="B11">
-        <v>46516</v>
+        <v>48580</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3548,15 +3548,15 @@
         <v>121</v>
       </c>
       <c r="B12">
-        <v>46516</v>
+        <v>48580</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>43420</v>
+        <v>44568</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3564,15 +3564,15 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>38307</v>
+        <v>39557</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>35766</v>
+        <v>38585</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>112</v>
       </c>
       <c r="B16">
-        <v>35635</v>
+        <v>38321</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>113</v>
       </c>
       <c r="B17">
-        <v>35635</v>
+        <v>38321</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>34045</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>106</v>
       </c>
       <c r="B19">
-        <v>31095</v>
+        <v>32161</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>107</v>
       </c>
       <c r="B20">
-        <v>31095</v>
+        <v>32161</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>99</v>
       </c>
       <c r="B21">
-        <v>28592</v>
+        <v>30180</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="B22">
-        <v>28592</v>
+        <v>30180</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>25325</v>
+        <v>26153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3644,47 +3644,47 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>25325</v>
+        <v>26153</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="B25">
-        <v>21862</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B26">
-        <v>21862</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B27">
-        <v>21318</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="B28">
-        <v>21318</v>
+        <v>22653</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B29">
-        <v>21318</v>
+        <v>22653</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>21163</v>
+        <v>22375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>116</v>
       </c>
       <c r="B31">
-        <v>21019</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>117</v>
       </c>
       <c r="B32">
-        <v>21019</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>118</v>
       </c>
       <c r="B33">
-        <v>21019</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>104</v>
       </c>
       <c r="B34">
-        <v>18874</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>105</v>
       </c>
       <c r="B35">
-        <v>18874</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>15</v>
       </c>
       <c r="B36">
-        <v>18226</v>
+        <v>18872</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>28</v>
       </c>
       <c r="B37">
-        <v>18139</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>108</v>
       </c>
       <c r="B38">
-        <v>15060</v>
+        <v>15546</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>109</v>
       </c>
       <c r="B39">
-        <v>15060</v>
+        <v>15546</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>29</v>
       </c>
       <c r="B40">
-        <v>11632</v>
+        <v>12373</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>11048</v>
+        <v>11439</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>114</v>
       </c>
       <c r="B42">
-        <v>9429</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>115</v>
       </c>
       <c r="B43">
-        <v>9429</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>110</v>
       </c>
       <c r="B44">
-        <v>8577</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>111</v>
       </c>
       <c r="B45">
-        <v>8577</v>
+        <v>9020</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>4756</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>122</v>
       </c>
       <c r="B47">
-        <v>3267</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>123</v>
       </c>
       <c r="B48">
-        <v>3267</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>124</v>
       </c>
       <c r="B49">
-        <v>3267</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>128</v>
       </c>
       <c r="B50">
-        <v>1431</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>129</v>
       </c>
       <c r="B51">
-        <v>1431</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>2244103</v>
+        <v>2315415</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="B3">
-        <v>2091671</v>
+        <v>2182742</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <v>1567657</v>
+        <v>1606736</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1077064</v>
+        <v>1130819</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>996669</v>
+        <v>1028091</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>644902</v>
+        <v>657557</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>351767</v>
+        <v>370534</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>76</v>
       </c>
       <c r="B9">
-        <v>212497</v>
+        <v>220052</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>186528</v>
+        <v>197249</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>130546</v>
+        <v>135226</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>134</v>
       </c>
       <c r="B12">
-        <v>88029</v>
+        <v>91916</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>80</v>
       </c>
       <c r="B13">
-        <v>87476</v>
+        <v>90153</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>81</v>
       </c>
       <c r="B14">
-        <v>85583</v>
+        <v>87857</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>57579</v>
+        <v>60211</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>30450</v>
+        <v>31705</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>83</v>
       </c>
       <c r="B17">
-        <v>30375</v>
+        <v>31487</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>84</v>
       </c>
       <c r="B18">
-        <v>12241</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>9950</v>
+        <v>10900</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>86</v>
       </c>
       <c r="B20">
-        <v>4909</v>
+        <v>4968</v>
       </c>
     </row>
   </sheetData>
@@ -4105,10 +4105,10 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4127,10 +4127,10 @@
         <v>131</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4138,10 +4138,10 @@
         <v>81</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>71</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4160,10 +4160,10 @@
         <v>133</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4185,29 +4185,29 @@
         <v>44</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4223,18 +4223,18 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4335,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="B2">
-        <v>411870</v>
+        <v>427843</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>203357</v>
+        <v>210702</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>131</v>
       </c>
       <c r="B4">
-        <v>99458</v>
+        <v>103608</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4359,23 +4359,23 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>96688</v>
+        <v>100468</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="B6">
-        <v>65413</v>
+        <v>68501</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="B7">
-        <v>64227</v>
+        <v>67678</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>46516</v>
+        <v>48580</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>35766</v>
+        <v>38585</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>34045</v>
+        <v>35930</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>32795</v>
+        <v>34748</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>32067</v>
+        <v>33319</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>85</v>
       </c>
       <c r="B13">
-        <v>21318</v>
+        <v>22899</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>18874</v>
+        <v>20025</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>18139</v>
+        <v>18844</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>134</v>
       </c>
       <c r="B16">
-        <v>14185</v>
+        <v>14956</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>135</v>
       </c>
       <c r="B17">
-        <v>9429</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>136</v>
       </c>
       <c r="B18">
-        <v>4756</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>84</v>
       </c>
       <c r="B19">
-        <v>3267</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>86</v>
       </c>
       <c r="B20">
-        <v>1431</v>
+        <v>1472</v>
       </c>
     </row>
   </sheetData>

--- a/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
+++ b/monthly_reports/monthly_data/2021 Charts Month 3.xlsx
@@ -821,7 +821,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>2315415</v>
+        <v>2335857</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -835,7 +835,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <v>1566036</v>
+        <v>1576037</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -849,7 +849,7 @@
         <v>71</v>
       </c>
       <c r="D4">
-        <v>1130819</v>
+        <v>1145076</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -863,7 +863,7 @@
         <v>72</v>
       </c>
       <c r="D5">
-        <v>370534</v>
+        <v>376138</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -877,7 +877,7 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>320696</v>
+        <v>322133</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -891,7 +891,7 @@
         <v>74</v>
       </c>
       <c r="D7">
-        <v>239902</v>
+        <v>243028</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -905,7 +905,7 @@
         <v>74</v>
       </c>
       <c r="D8">
-        <v>229123</v>
+        <v>230884</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -919,7 +919,7 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>203274</v>
+        <v>205076</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -933,7 +933,7 @@
         <v>75</v>
       </c>
       <c r="D10">
-        <v>197249</v>
+        <v>200067</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -947,7 +947,7 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>192469</v>
+        <v>193439</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -961,7 +961,7 @@
         <v>76</v>
       </c>
       <c r="D12">
-        <v>147751</v>
+        <v>148921</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -975,7 +975,7 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>144392</v>
+        <v>145118</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -989,7 +989,7 @@
         <v>77</v>
       </c>
       <c r="D14">
-        <v>142754</v>
+        <v>144075</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1003,7 +1003,7 @@
         <v>74</v>
       </c>
       <c r="D15">
-        <v>142662</v>
+        <v>144012</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1017,7 +1017,7 @@
         <v>78</v>
       </c>
       <c r="D16">
-        <v>135226</v>
+        <v>136471</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1031,7 +1031,7 @@
         <v>74</v>
       </c>
       <c r="D17">
-        <v>134898</v>
+        <v>135730</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1045,7 +1045,7 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>102064</v>
+        <v>102857</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="D19">
-        <v>90068</v>
+        <v>90538</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1073,7 +1073,7 @@
         <v>77</v>
       </c>
       <c r="D20">
-        <v>78429</v>
+        <v>78526</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1087,7 +1087,7 @@
         <v>76</v>
       </c>
       <c r="D21">
-        <v>72301</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1101,7 +1101,7 @@
         <v>77</v>
       </c>
       <c r="D22">
-        <v>66876</v>
+        <v>67347</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1115,7 +1115,7 @@
         <v>79</v>
       </c>
       <c r="D23">
-        <v>60211</v>
+        <v>60802</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1129,7 +1129,7 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <v>50396</v>
+        <v>50989</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1143,7 +1143,7 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>44380</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1157,7 +1157,7 @@
         <v>81</v>
       </c>
       <c r="D26">
-        <v>43477</v>
+        <v>43764</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1171,7 +1171,7 @@
         <v>70</v>
       </c>
       <c r="D27">
-        <v>40700</v>
+        <v>40973</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1185,7 +1185,7 @@
         <v>80</v>
       </c>
       <c r="D28">
-        <v>39757</v>
+        <v>40011</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1199,7 +1199,7 @@
         <v>82</v>
       </c>
       <c r="D29">
-        <v>31705</v>
+        <v>32004</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1213,7 +1213,7 @@
         <v>83</v>
       </c>
       <c r="D30">
-        <v>31487</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1227,7 +1227,7 @@
         <v>84</v>
       </c>
       <c r="D31">
-        <v>12443</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1241,7 +1241,7 @@
         <v>85</v>
       </c>
       <c r="D32">
-        <v>10900</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1255,7 +1255,7 @@
         <v>86</v>
       </c>
       <c r="D33">
-        <v>4968</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1269,7 +1269,7 @@
         <v>77</v>
       </c>
       <c r="D34">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -1313,10 +1313,10 @@
         <v>76</v>
       </c>
       <c r="D2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1333,7 +1333,7 @@
         <v>70</v>
       </c>
       <c r="E3">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1418,7 +1418,7 @@
         <v>37</v>
       </c>
       <c r="E8">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1901,7 +1901,7 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>210702</v>
+        <v>212679</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1915,7 +1915,7 @@
         <v>71</v>
       </c>
       <c r="D3">
-        <v>100468</v>
+        <v>101515</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1929,7 +1929,7 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>84559</v>
+        <v>85227</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>74</v>
       </c>
       <c r="D5">
-        <v>67235</v>
+        <v>68323</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1957,7 +1957,7 @@
         <v>74</v>
       </c>
       <c r="D6">
-        <v>59295</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>83</v>
       </c>
       <c r="D7">
-        <v>48580</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1985,7 +1985,7 @@
         <v>74</v>
       </c>
       <c r="D8">
-        <v>44568</v>
+        <v>44864</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1999,7 +1999,7 @@
         <v>74</v>
       </c>
       <c r="D9">
-        <v>39557</v>
+        <v>39860</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2013,7 +2013,7 @@
         <v>75</v>
       </c>
       <c r="D10">
-        <v>38585</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2027,7 +2027,7 @@
         <v>76</v>
       </c>
       <c r="D11">
-        <v>38321</v>
+        <v>38943</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2041,7 +2041,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>35930</v>
+        <v>36372</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2055,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="D13">
-        <v>32161</v>
+        <v>32395</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2069,7 +2069,7 @@
         <v>76</v>
       </c>
       <c r="D14">
-        <v>30180</v>
+        <v>30599</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>26153</v>
+        <v>26408</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2097,7 +2097,7 @@
         <v>85</v>
       </c>
       <c r="D16">
-        <v>22899</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2111,7 +2111,7 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>22653</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2125,7 +2125,7 @@
         <v>80</v>
       </c>
       <c r="D18">
-        <v>22375</v>
+        <v>22675</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2139,7 +2139,7 @@
         <v>81</v>
       </c>
       <c r="D19">
-        <v>21880</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2153,35 +2153,35 @@
         <v>78</v>
       </c>
       <c r="D20">
-        <v>20025</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>18872</v>
+        <v>19029</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>18844</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2195,7 +2195,7 @@
         <v>77</v>
       </c>
       <c r="D23">
-        <v>15546</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2209,7 +2209,7 @@
         <v>80</v>
       </c>
       <c r="D24">
-        <v>12373</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2223,7 +2223,7 @@
         <v>81</v>
       </c>
       <c r="D25">
-        <v>11439</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2237,7 +2237,7 @@
         <v>79</v>
       </c>
       <c r="D26">
-        <v>10018</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2251,7 +2251,7 @@
         <v>77</v>
       </c>
       <c r="D27">
-        <v>9020</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2265,7 +2265,7 @@
         <v>82</v>
       </c>
       <c r="D28">
-        <v>4938</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>84</v>
       </c>
       <c r="D29">
-        <v>3368</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2293,7 +2293,7 @@
         <v>86</v>
       </c>
       <c r="D30">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2307,7 +2307,7 @@
         <v>77</v>
       </c>
       <c r="D31">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2378,7 +2378,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>2315415</v>
+        <v>2335857</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>90</v>
       </c>
       <c r="B3">
-        <v>1566036</v>
+        <v>1576037</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>91</v>
       </c>
       <c r="B4">
-        <v>1566036</v>
+        <v>1576037</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>92</v>
       </c>
       <c r="B5">
-        <v>1566036</v>
+        <v>1576037</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>93</v>
       </c>
       <c r="B6">
-        <v>1130819</v>
+        <v>1145076</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>94</v>
       </c>
       <c r="B7">
-        <v>1130819</v>
+        <v>1145076</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>370534</v>
+        <v>376138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>95</v>
       </c>
       <c r="B9">
-        <v>320696</v>
+        <v>322133</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>96</v>
       </c>
       <c r="B10">
-        <v>320696</v>
+        <v>322133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>239902</v>
+        <v>243028</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>229123</v>
+        <v>230884</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>209630</v>
+        <v>211422</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>203274</v>
+        <v>205076</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>197249</v>
+        <v>200067</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>97</v>
       </c>
       <c r="B16">
-        <v>192469</v>
+        <v>193439</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>98</v>
       </c>
       <c r="B17">
-        <v>192469</v>
+        <v>193439</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>99</v>
       </c>
       <c r="B18">
-        <v>147751</v>
+        <v>148921</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>100</v>
       </c>
       <c r="B19">
-        <v>147751</v>
+        <v>148921</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>15</v>
       </c>
       <c r="B20">
-        <v>144392</v>
+        <v>145118</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>101</v>
       </c>
       <c r="B21">
-        <v>142662</v>
+        <v>144012</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>102</v>
       </c>
       <c r="B22">
-        <v>142662</v>
+        <v>144012</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>103</v>
       </c>
       <c r="B23">
-        <v>142662</v>
+        <v>144012</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>104</v>
       </c>
       <c r="B24">
-        <v>135226</v>
+        <v>136471</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>105</v>
       </c>
       <c r="B25">
-        <v>135226</v>
+        <v>136471</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>19</v>
       </c>
       <c r="B26">
-        <v>134898</v>
+        <v>135730</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>106</v>
       </c>
       <c r="B27">
-        <v>102064</v>
+        <v>102857</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>107</v>
       </c>
       <c r="B28">
-        <v>102064</v>
+        <v>102857</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>108</v>
       </c>
       <c r="B29">
-        <v>90068</v>
+        <v>90538</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>109</v>
       </c>
       <c r="B30">
-        <v>90068</v>
+        <v>90538</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>110</v>
       </c>
       <c r="B31">
-        <v>78429</v>
+        <v>78526</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>111</v>
       </c>
       <c r="B32">
-        <v>78429</v>
+        <v>78526</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>112</v>
       </c>
       <c r="B33">
-        <v>72301</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>113</v>
       </c>
       <c r="B34">
-        <v>72301</v>
+        <v>73300</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>114</v>
       </c>
       <c r="B35">
-        <v>60211</v>
+        <v>60802</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>115</v>
       </c>
       <c r="B36">
-        <v>60211</v>
+        <v>60802</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>25</v>
       </c>
       <c r="B37">
-        <v>50396</v>
+        <v>50989</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>116</v>
       </c>
       <c r="B38">
-        <v>44380</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>117</v>
       </c>
       <c r="B39">
-        <v>44380</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>118</v>
       </c>
       <c r="B40">
-        <v>44380</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>43477</v>
+        <v>43764</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>40700</v>
+        <v>40973</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>29</v>
       </c>
       <c r="B43">
-        <v>39757</v>
+        <v>40011</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>30</v>
       </c>
       <c r="B44">
-        <v>31705</v>
+        <v>32004</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>119</v>
       </c>
       <c r="B45">
-        <v>31487</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>120</v>
       </c>
       <c r="B46">
-        <v>31487</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>121</v>
       </c>
       <c r="B47">
-        <v>31487</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>122</v>
       </c>
       <c r="B48">
-        <v>12443</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>123</v>
       </c>
       <c r="B49">
-        <v>12443</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>124</v>
       </c>
       <c r="B50">
-        <v>12443</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>125</v>
       </c>
       <c r="B51">
-        <v>10900</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>126</v>
       </c>
       <c r="B52">
-        <v>10900</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>127</v>
       </c>
       <c r="B53">
-        <v>10900</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>128</v>
       </c>
       <c r="B54">
-        <v>4968</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>129</v>
       </c>
       <c r="B55">
-        <v>4968</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="B56">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -2842,10 +2842,10 @@
         <v>112</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2853,10 +2853,10 @@
         <v>113</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2867,7 +2867,7 @@
         <v>70</v>
       </c>
       <c r="C4">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2955,7 +2955,7 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2966,7 +2966,7 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2977,7 +2977,7 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3468,7 +3468,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>210702</v>
+        <v>212679</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3476,7 +3476,7 @@
         <v>93</v>
       </c>
       <c r="B3">
-        <v>100468</v>
+        <v>101515</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3484,7 +3484,7 @@
         <v>94</v>
       </c>
       <c r="B4">
-        <v>100468</v>
+        <v>101515</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3492,7 +3492,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>84559</v>
+        <v>85227</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>67235</v>
+        <v>68323</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3508,7 +3508,7 @@
         <v>101</v>
       </c>
       <c r="B7">
-        <v>59295</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3516,7 +3516,7 @@
         <v>102</v>
       </c>
       <c r="B8">
-        <v>59295</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3524,7 +3524,7 @@
         <v>103</v>
       </c>
       <c r="B9">
-        <v>59295</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3532,7 +3532,7 @@
         <v>119</v>
       </c>
       <c r="B10">
-        <v>48580</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3540,7 +3540,7 @@
         <v>120</v>
       </c>
       <c r="B11">
-        <v>48580</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3548,7 +3548,7 @@
         <v>121</v>
       </c>
       <c r="B12">
-        <v>48580</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3556,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>44568</v>
+        <v>44864</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>39557</v>
+        <v>39860</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>38585</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>112</v>
       </c>
       <c r="B16">
-        <v>38321</v>
+        <v>38943</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>113</v>
       </c>
       <c r="B17">
-        <v>38321</v>
+        <v>38943</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>35930</v>
+        <v>36372</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>106</v>
       </c>
       <c r="B19">
-        <v>32161</v>
+        <v>32395</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>107</v>
       </c>
       <c r="B20">
-        <v>32161</v>
+        <v>32395</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>99</v>
       </c>
       <c r="B21">
-        <v>30180</v>
+        <v>30599</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3628,7 +3628,7 @@
         <v>100</v>
       </c>
       <c r="B22">
-        <v>30180</v>
+        <v>30599</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3636,7 +3636,7 @@
         <v>95</v>
       </c>
       <c r="B23">
-        <v>26153</v>
+        <v>26408</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3644,7 +3644,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>26153</v>
+        <v>26408</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3652,7 +3652,7 @@
         <v>125</v>
       </c>
       <c r="B25">
-        <v>22899</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>126</v>
       </c>
       <c r="B26">
-        <v>22899</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>127</v>
       </c>
       <c r="B27">
-        <v>22899</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3676,7 +3676,7 @@
         <v>97</v>
       </c>
       <c r="B28">
-        <v>22653</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>98</v>
       </c>
       <c r="B29">
-        <v>22653</v>
+        <v>22891</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>22375</v>
+        <v>22675</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3700,7 +3700,7 @@
         <v>116</v>
       </c>
       <c r="B31">
-        <v>21880</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3708,7 +3708,7 @@
         <v>117</v>
       </c>
       <c r="B32">
-        <v>21880</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>118</v>
       </c>
       <c r="B33">
-        <v>21880</v>
+        <v>22059</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>104</v>
       </c>
       <c r="B34">
-        <v>20025</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3732,23 +3732,23 @@
         <v>105</v>
       </c>
       <c r="B35">
-        <v>20025</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>18872</v>
+        <v>19029</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>18844</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>108</v>
       </c>
       <c r="B38">
-        <v>15546</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>109</v>
       </c>
       <c r="B39">
-        <v>15546</v>
+        <v>15668</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>29</v>
       </c>
       <c r="B40">
-        <v>12373</v>
+        <v>12563</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>11439</v>
+        <v>11538</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>114</v>
       </c>
       <c r="B42">
-        <v>10018</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>115</v>
       </c>
       <c r="B43">
-        <v>10018</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>110</v>
       </c>
       <c r="B44">
-        <v>9020</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>111</v>
       </c>
       <c r="B45">
-        <v>9020</v>
+        <v>9166</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>30</v>
       </c>
       <c r="B46">
-        <v>4938</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>122</v>
       </c>
       <c r="B47">
-        <v>3368</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>123</v>
       </c>
       <c r="B48">
-        <v>3368</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>124</v>
       </c>
       <c r="B49">
-        <v>3368</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>128</v>
       </c>
       <c r="B50">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>129</v>
       </c>
       <c r="B51">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>35</v>
       </c>
       <c r="B52">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>69</v>
       </c>
       <c r="B2">
-        <v>2315415</v>
+        <v>2335857</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>74</v>
       </c>
       <c r="B3">
-        <v>2182742</v>
+        <v>2206663</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>70</v>
       </c>
       <c r="B4">
-        <v>1606736</v>
+        <v>1617010</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>1130819</v>
+        <v>1145076</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>131</v>
       </c>
       <c r="B6">
-        <v>1028091</v>
+        <v>1036828</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>657557</v>
+        <v>660690</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>133</v>
       </c>
       <c r="B8">
-        <v>370534</v>
+        <v>376138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>76</v>
       </c>
       <c r="B9">
-        <v>220052</v>
+        <v>222221</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>75</v>
       </c>
       <c r="B10">
-        <v>197249</v>
+        <v>200067</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>78</v>
       </c>
       <c r="B11">
-        <v>135226</v>
+        <v>136471</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>134</v>
       </c>
       <c r="B12">
-        <v>91916</v>
+        <v>92806</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>80</v>
       </c>
       <c r="B13">
-        <v>90153</v>
+        <v>91000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>81</v>
       </c>
       <c r="B14">
-        <v>87857</v>
+        <v>88472</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>135</v>
       </c>
       <c r="B15">
-        <v>60211</v>
+        <v>60802</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>136</v>
       </c>
       <c r="B16">
-        <v>31705</v>
+        <v>32004</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>83</v>
       </c>
       <c r="B17">
-        <v>31487</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>84</v>
       </c>
       <c r="B18">
-        <v>12443</v>
+        <v>12502</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>85</v>
       </c>
       <c r="B19">
-        <v>10900</v>
+        <v>11196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>86</v>
       </c>
       <c r="B20">
-        <v>4968</v>
+        <v>4985</v>
       </c>
     </row>
   </sheetData>
@@ -4105,10 +4105,10 @@
         <v>76</v>
       </c>
       <c r="B2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4130,7 +4130,7 @@
         <v>123</v>
       </c>
       <c r="C4">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>73</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4163,7 +4163,7 @@
         <v>70</v>
       </c>
       <c r="C7">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4335,7 +4335,7 @@
         <v>74</v>
       </c>
       <c r="B2">
-        <v>427843</v>
+        <v>431984</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>69</v>
       </c>
       <c r="B3">
-        <v>210702</v>
+        <v>212679</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>131</v>
       </c>
       <c r="B4">
-        <v>103608</v>
+        <v>104688</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>130</v>
       </c>
       <c r="B5">
-        <v>100468</v>
+        <v>101515</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4367,7 +4367,7 @@
         <v>76</v>
       </c>
       <c r="B6">
-        <v>68501</v>
+        <v>69542</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>132</v>
       </c>
       <c r="B7">
-        <v>67678</v>
+        <v>68316</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>48580</v>
+        <v>49169</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="B9">
-        <v>38585</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <v>35930</v>
+        <v>36372</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4407,7 +4407,7 @@
         <v>80</v>
       </c>
       <c r="B11">
-        <v>34748</v>
+        <v>35238</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4415,7 +4415,7 @@
         <v>81</v>
       </c>
       <c r="B12">
-        <v>33319</v>
+        <v>33597</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4423,7 +4423,7 @@
         <v>85</v>
       </c>
       <c r="B13">
-        <v>22899</v>
+        <v>23396</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4431,7 +4431,7 @@
         <v>78</v>
       </c>
       <c r="B14">
-        <v>20025</v>
+        <v>20265</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4439,7 +4439,7 @@
         <v>70</v>
       </c>
       <c r="B15">
-        <v>18844</v>
+        <v>19029</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>134</v>
       </c>
       <c r="B16">
-        <v>14956</v>
+        <v>15243</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4455,7 +4455,7 @@
         <v>135</v>
       </c>
       <c r="B17">
-        <v>10018</v>
+        <v>10262</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4463,7 +4463,7 @@
         <v>136</v>
       </c>
       <c r="B18">
-        <v>4938</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4471,7 +4471,7 @@
         <v>84</v>
       </c>
       <c r="B19">
-        <v>3368</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>86</v>
       </c>
       <c r="B20">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
